--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 13-2.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 13-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\11209000\11209269\B. Measurements and calculations\007 Assemblagekernel\Testcases\Aangepast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9C522C-91C9-4D8A-8514-C654C0CEE3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9174DFB-D630-4ECC-AF0B-9F9666AD3777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="GEKB" sheetId="5" r:id="rId5"/>
     <sheet name="DA" sheetId="6" r:id="rId6"/>
     <sheet name="STKWp" sheetId="10" r:id="rId7"/>
-    <sheet name="BSKW" sheetId="14" r:id="rId8"/>
-    <sheet name="HTKW" sheetId="9" r:id="rId9"/>
+    <sheet name="HTKW" sheetId="9" r:id="rId8"/>
+    <sheet name="BSKW" sheetId="14" r:id="rId9"/>
     <sheet name="Veiligheidsoordeel" sheetId="7" r:id="rId10"/>
     <sheet name="Gecombineerd vakoordeel" sheetId="8" r:id="rId11"/>
   </sheets>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="153">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -480,9 +480,6 @@
     <t>P2</t>
   </si>
   <si>
-    <t>Correlated</t>
-  </si>
-  <si>
     <t>Pf corr</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>1-Pf tussen uncorr</t>
+  </si>
+  <si>
+    <t>Gecorreleerd</t>
   </si>
 </sst>
 </file>
@@ -2224,18 +2224,21 @@
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
@@ -2297,7 +2300,7 @@
         <v>84</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>85</v>
@@ -2306,22 +2309,22 @@
         <v>86</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2329,23 +2332,24 @@
         <v>76</v>
       </c>
       <c r="C7" s="29">
+        <f>STPH!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <f>STPH!C8</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44" t="str">
         <f>STPH!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="25">
-        <f>STPH!C7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="23">
-        <v>0</v>
+        <v>Nee</v>
       </c>
       <c r="H7" s="1">
-        <f>IF(ISNUMBER(E7),1-E7,1-C7)</f>
+        <f t="shared" ref="H7:H13" si="0">IF(ISNUMBER(E7),1-E7,1-C7)</f>
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <f>IF(ISNUMBER(E7),1-E7,1-D7)</f>
+        <f t="shared" ref="I7:I13" si="1">IF(ISNUMBER(E7),1-E7,1-D7)</f>
         <v>1</v>
       </c>
       <c r="J7" s="1">
@@ -2357,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <f>F7*J7</f>
+        <f>IF(F7="Ja",1,0)*J7</f>
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <f>1-(1-F7)*J7</f>
+        <f>1-(1-IF(F7="Ja",1,0))*J7</f>
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <f>F7*K7</f>
+        <f>IF(F7="Ja",1,0)*K7</f>
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <f>1-(1-F7)*K7</f>
+        <f>1-(1-IF(F7="Ja",1,0))*K7</f>
         <v>1</v>
       </c>
     </row>
@@ -2378,47 +2382,48 @@
         <v>77</v>
       </c>
       <c r="C8" s="31">
+        <f>STBI!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="26">
+        <f>STBI!C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44" t="str">
         <f>STBI!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="26">
-        <f>STBI!C7</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="23">
-        <v>0</v>
+        <v>Nee</v>
       </c>
       <c r="H8" s="1">
-        <f>IF(ISNUMBER(E8),1-E8,1-C8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I8" s="1">
-        <f>IF(ISNUMBER(E8),1-E8,1-D8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:K13" si="0">1-H8</f>
+        <f t="shared" ref="J8:K13" si="2">1-H8</f>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <f>F8*J8</f>
+        <f t="shared" ref="L8:L13" si="3">IF(F8="Ja",1,0)*J8</f>
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" ref="M8:M13" si="1">1-(1-F8)*J8</f>
+        <f t="shared" ref="M8:M13" si="4">1-(1-IF(F8="Ja",1,0))*J8</f>
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <f>F8*K8</f>
+        <f t="shared" ref="N8:N13" si="5">IF(F8="Ja",1,0)*K8</f>
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ref="O8:O13" si="2">1-(1-F8)*K8</f>
+        <f t="shared" ref="O8:O13" si="6">1-(1-IF(F8="Ja",1,0))*K8</f>
         <v>1</v>
       </c>
     </row>
@@ -2427,47 +2432,48 @@
         <v>78</v>
       </c>
       <c r="C9" s="31">
+        <f>GEKB!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <f>GEKB!C8</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44" t="str">
         <f>GEKB!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="26">
-        <f>GEKB!C7</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="23">
-        <v>0</v>
+        <v>Nee</v>
       </c>
       <c r="H9" s="1">
-        <f>IF(ISNUMBER(E9),1-E9,1-C9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <f>IF(ISNUMBER(E9),1-E9,1-D9)</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>F9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="N9" s="1">
-        <f>F9*K9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2476,47 +2482,48 @@
         <v>79</v>
       </c>
       <c r="C10" s="31">
-        <f>DA!C6</f>
-        <v>4.6800000000000002E-8</v>
-      </c>
-      <c r="D10" s="26">
         <f>DA!C7</f>
         <v>4.6800000000000002E-8</v>
       </c>
+      <c r="D10" s="26">
+        <f>DA!C8</f>
+        <v>4.6800000000000002E-8</v>
+      </c>
       <c r="E10" s="44"/>
-      <c r="F10" s="23">
-        <v>0</v>
+      <c r="F10" s="44" t="str">
+        <f>DA!C6</f>
+        <v>Nee</v>
       </c>
       <c r="H10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-C10)</f>
+        <f t="shared" si="0"/>
         <v>0.99999995320000001</v>
       </c>
       <c r="I10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-D10)</f>
-        <v>0.99999995320000001</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
-        <v>4.6799999986468777E-8</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="0"/>
-        <v>4.6799999986468777E-8</v>
-      </c>
-      <c r="L10" s="1">
-        <f>F10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>0.99999995320000001</v>
       </c>
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>4.6799999986468777E-8</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>4.6799999986468777E-8</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99999995320000001</v>
+      </c>
       <c r="N10" s="1">
-        <f>F10*K10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99999995320000001</v>
       </c>
     </row>
@@ -2525,47 +2532,48 @@
         <v>80</v>
       </c>
       <c r="C11" s="31">
+        <f>STKWp!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <f>STKWp!C8</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44" t="str">
         <f>STKWp!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="26">
-        <f>STKWp!C7</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="23">
-        <v>0</v>
+        <v>Nee</v>
       </c>
       <c r="H11" s="1">
-        <f>IF(ISNUMBER(E11),1-E11,1-C11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I11" s="1">
-        <f>IF(ISNUMBER(E11),1-E11,1-D11)</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f>F11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="N11" s="1">
-        <f>F11*K11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2574,47 +2582,48 @@
         <v>81</v>
       </c>
       <c r="C12" s="31">
+        <f>HTKW!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
+        <f>HTKW!C8</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44" t="str">
         <f>HTKW!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="26">
-        <f>HTKW!C7</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="23">
-        <v>0</v>
+        <v>Nee</v>
       </c>
       <c r="H12" s="1">
-        <f>IF(ISNUMBER(E12),1-E12,1-C12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f>IF(ISNUMBER(E12),1-E12,1-D12)</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f>F12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="N12" s="1">
-        <f>F12*K12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2623,47 +2632,48 @@
         <v>100</v>
       </c>
       <c r="C13" s="31">
+        <f>BSKW!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="26">
+        <f>BSKW!C8</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44" t="str">
         <f>BSKW!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="26">
-        <f>BSKW!C7</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="23">
-        <v>0</v>
+        <v>Nee</v>
       </c>
       <c r="H13" s="1">
-        <f>IF(ISNUMBER(E13),1-E13,1-C13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I13" s="1">
-        <f>IF(ISNUMBER(E13),1-E13,1-D13)</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f>F13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="N13" s="1">
-        <f>F13*K13</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2678,7 +2688,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I15" s="1"/>
       <c r="K15" s="1"/>
@@ -2825,31 +2835,31 @@
         <v>+III</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f t="array" ref="F3">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B3,C3),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F3">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B3,C3),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="array" ref="G3">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B3,C3),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G3">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B3,C3),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="array" ref="H3">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B3,C3),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H3">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B3,C3),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="array" ref="I3">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B3,C3),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I3">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B3,C3),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="array" ref="J3">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B3,C3),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J3">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B3,C3),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f t="array" ref="K3">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B3,C3),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K3">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B3,C3),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L3" s="7" t="str">
-        <f t="array" ref="L3">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B3,C3),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L3">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B3,C3),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -2869,31 +2879,31 @@
         <v>+III</v>
       </c>
       <c r="F4" s="9" t="str">
-        <f t="array" ref="F4">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B4,C4),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F4">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B4,C4),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G4" s="9" t="str">
-        <f t="array" ref="G4">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B4,C4),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G4">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B4,C4),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H4" s="9" t="str">
-        <f t="array" ref="H4">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B4,C4),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H4">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B4,C4),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I4" s="9" t="str">
-        <f t="array" ref="I4">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B4,C4),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I4">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B4,C4),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J4" s="9" t="str">
-        <f t="array" ref="J4">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B4,C4),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J4">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B4,C4),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K4" s="9" t="str">
-        <f t="array" ref="K4">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B4,C4),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K4">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B4,C4),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f t="array" ref="L4">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B4,C4),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L4">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B4,C4),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -2913,31 +2923,31 @@
         <v>+III</v>
       </c>
       <c r="F5" s="9" t="str">
-        <f t="array" ref="F5">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B5,C5),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F5">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B5,C5),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G5" s="9" t="str">
-        <f t="array" ref="G5">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B5,C5),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G5">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B5,C5),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f t="array" ref="H5">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B5,C5),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H5">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B5,C5),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I5" s="9" t="str">
-        <f t="array" ref="I5">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B5,C5),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I5">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B5,C5),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J5" s="9" t="str">
-        <f t="array" ref="J5">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B5,C5),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J5">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B5,C5),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K5" s="9" t="str">
-        <f t="array" ref="K5">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B5,C5),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K5">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B5,C5),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L5" s="12" t="str">
-        <f t="array" ref="L5">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B5,C5),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L5">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B5,C5),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -2957,31 +2967,31 @@
         <v>+III</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f t="array" ref="F6">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B6,C6),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F6">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B6,C6),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G6" s="9" t="str">
-        <f t="array" ref="G6">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B6,C6),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G6">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B6,C6),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H6" s="9" t="str">
-        <f t="array" ref="H6">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B6,C6),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H6">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B6,C6),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I6" s="9" t="str">
-        <f t="array" ref="I6">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B6,C6),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I6">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B6,C6),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J6" s="9" t="str">
-        <f t="array" ref="J6">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B6,C6),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J6">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B6,C6),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K6" s="9" t="str">
-        <f t="array" ref="K6">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B6,C6),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K6">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B6,C6),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L6" s="12" t="str">
-        <f t="array" ref="L6">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B6,C6),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L6">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B6,C6),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3001,31 +3011,31 @@
         <v>+III</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="array" ref="F7">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B7,C7),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F7">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B7,C7),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f t="array" ref="G7">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B7,C7),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G7">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B7,C7),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H7" s="9" t="str">
-        <f t="array" ref="H7">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B7,C7),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H7">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B7,C7),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I7" s="9" t="str">
-        <f t="array" ref="I7">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B7,C7),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I7">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B7,C7),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J7" s="9" t="str">
-        <f t="array" ref="J7">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B7,C7),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J7">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B7,C7),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K7" s="9" t="str">
-        <f t="array" ref="K7">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B7,C7),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K7">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B7,C7),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L7" s="12" t="str">
-        <f t="array" ref="L7">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B7,C7),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L7">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B7,C7),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3045,31 +3055,31 @@
         <v>+III</v>
       </c>
       <c r="F8" s="9" t="str">
-        <f t="array" ref="F8">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B8,C8),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F8">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B8,C8),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G8" s="9" t="str">
-        <f t="array" ref="G8">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B8,C8),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G8">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B8,C8),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H8" s="9" t="str">
-        <f t="array" ref="H8">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B8,C8),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H8">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B8,C8),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I8" s="9" t="str">
-        <f t="array" ref="I8">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B8,C8),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I8">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B8,C8),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J8" s="9" t="str">
-        <f t="array" ref="J8">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B8,C8),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J8">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B8,C8),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K8" s="9" t="str">
-        <f t="array" ref="K8">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B8,C8),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K8">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B8,C8),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L8" s="12" t="str">
-        <f t="array" ref="L8">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B8,C8),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L8">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B8,C8),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3089,31 +3099,31 @@
         <v>+III</v>
       </c>
       <c r="F9" s="9" t="str">
-        <f t="array" ref="F9">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B9,C9),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F9">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B9,C9),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G9" s="9" t="str">
-        <f t="array" ref="G9">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B9,C9),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G9">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B9,C9),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H9" s="9" t="str">
-        <f t="array" ref="H9">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B9,C9),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H9">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B9,C9),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I9" s="9" t="str">
-        <f t="array" ref="I9">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B9,C9),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I9">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B9,C9),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J9" s="9" t="str">
-        <f t="array" ref="J9">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B9,C9),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J9">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B9,C9),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K9" s="9" t="str">
-        <f t="array" ref="K9">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B9,C9),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K9">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B9,C9),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L9" s="12" t="str">
-        <f t="array" ref="L9">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B9,C9),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L9">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B9,C9),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3133,31 +3143,31 @@
         <v>+III</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f t="array" ref="F10">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B10,C10),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F10">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B10,C10),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G10" s="9" t="str">
-        <f t="array" ref="G10">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B10,C10),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G10">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B10,C10),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H10" s="9" t="str">
-        <f t="array" ref="H10">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B10,C10),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H10">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B10,C10),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I10" s="9" t="str">
-        <f t="array" ref="I10">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B10,C10),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I10">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B10,C10),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J10" s="9" t="str">
-        <f t="array" ref="J10">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B10,C10),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J10">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B10,C10),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K10" s="9" t="str">
-        <f t="array" ref="K10">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B10,C10),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K10">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B10,C10),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L10" s="12" t="str">
-        <f t="array" ref="L10">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B10,C10),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L10">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B10,C10),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3177,31 +3187,31 @@
         <v>+III</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f t="array" ref="F11">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B11,C11),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F11">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B11,C11),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G11" s="9" t="str">
-        <f t="array" ref="G11">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B11,C11),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G11">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B11,C11),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f t="array" ref="H11">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B11,C11),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H11">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B11,C11),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I11" s="9" t="str">
-        <f t="array" ref="I11">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B11,C11),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I11">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B11,C11),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J11" s="9" t="str">
-        <f t="array" ref="J11">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B11,C11),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J11">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B11,C11),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K11" s="9" t="str">
-        <f t="array" ref="K11">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B11,C11),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K11">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B11,C11),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L11" s="12" t="str">
-        <f t="array" ref="L11">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B11,C11),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L11">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B11,C11),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3221,31 +3231,31 @@
         <v>+III</v>
       </c>
       <c r="F12" s="9" t="str">
-        <f t="array" ref="F12">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B12,C12),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F12">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B12,C12),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G12" s="9" t="str">
-        <f t="array" ref="G12">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B12,C12),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G12">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B12,C12),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H12" s="9" t="str">
-        <f t="array" ref="H12">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B12,C12),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H12">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B12,C12),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I12" s="9" t="str">
-        <f t="array" ref="I12">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B12,C12),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I12">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B12,C12),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J12" s="9" t="str">
-        <f t="array" ref="J12">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B12,C12),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J12">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B12,C12),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K12" s="9" t="str">
-        <f t="array" ref="K12">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B12,C12),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K12">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B12,C12),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L12" s="12" t="str">
-        <f t="array" ref="L12">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B12,C12),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L12">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B12,C12),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3265,31 +3275,31 @@
         <v>+III</v>
       </c>
       <c r="F13" s="9" t="str">
-        <f t="array" ref="F13">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B13,C13),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F13">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B13,C13),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G13" s="9" t="str">
-        <f t="array" ref="G13">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B13,C13),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G13">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B13,C13),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H13" s="9" t="str">
-        <f t="array" ref="H13">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B13,C13),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H13">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B13,C13),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I13" s="9" t="str">
-        <f t="array" ref="I13">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B13,C13),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I13">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B13,C13),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J13" s="9" t="str">
-        <f t="array" ref="J13">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B13,C13),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J13">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B13,C13),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K13" s="9" t="str">
-        <f t="array" ref="K13">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B13,C13),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K13">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B13,C13),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L13" s="12" t="str">
-        <f t="array" ref="L13">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B13,C13),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L13">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B13,C13),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3309,31 +3319,31 @@
         <v>+III</v>
       </c>
       <c r="F14" s="9" t="str">
-        <f t="array" ref="F14">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B14,C14),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F14">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B14,C14),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G14" s="9" t="str">
-        <f t="array" ref="G14">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B14,C14),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G14">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B14,C14),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H14" s="9" t="str">
-        <f t="array" ref="H14">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B14,C14),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H14">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B14,C14),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I14" s="9" t="str">
-        <f t="array" ref="I14">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B14,C14),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I14">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B14,C14),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J14" s="9" t="str">
-        <f t="array" ref="J14">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B14,C14),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J14">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B14,C14),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K14" s="9" t="str">
-        <f t="array" ref="K14">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B14,C14),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K14">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B14,C14),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L14" s="12" t="str">
-        <f t="array" ref="L14">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B14,C14),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L14">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B14,C14),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3353,31 +3363,31 @@
         <v>+III</v>
       </c>
       <c r="F15" s="9" t="str">
-        <f t="array" ref="F15">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B15,C15),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F15">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B15,C15),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G15" s="9" t="str">
-        <f t="array" ref="G15">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B15,C15),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G15">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B15,C15),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H15" s="9" t="str">
-        <f t="array" ref="H15">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B15,C15),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H15">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B15,C15),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I15" s="9" t="str">
-        <f t="array" ref="I15">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B15,C15),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I15">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B15,C15),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J15" s="9" t="str">
-        <f t="array" ref="J15">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B15,C15),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J15">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B15,C15),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K15" s="9" t="str">
-        <f t="array" ref="K15">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B15,C15),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K15">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B15,C15),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L15" s="12" t="str">
-        <f t="array" ref="L15">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B15,C15),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L15">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B15,C15),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3397,31 +3407,31 @@
         <v>+III</v>
       </c>
       <c r="F16" s="9" t="str">
-        <f t="array" ref="F16">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B16,C16),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F16">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B16,C16),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G16" s="9" t="str">
-        <f t="array" ref="G16">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B16,C16),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G16">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B16,C16),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H16" s="9" t="str">
-        <f t="array" ref="H16">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B16,C16),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H16">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B16,C16),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I16" s="9" t="str">
-        <f t="array" ref="I16">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B16,C16),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I16">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B16,C16),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J16" s="9" t="str">
-        <f t="array" ref="J16">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B16,C16),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J16">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B16,C16),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K16" s="9" t="str">
-        <f t="array" ref="K16">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B16,C16),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K16">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B16,C16),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L16" s="12" t="str">
-        <f t="array" ref="L16">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B16,C16),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L16">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B16,C16),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3441,31 +3451,31 @@
         <v>+III</v>
       </c>
       <c r="F17" s="9" t="str">
-        <f t="array" ref="F17">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B17,C17),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F17">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B17,C17),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G17" s="9" t="str">
-        <f t="array" ref="G17">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B17,C17),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G17">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B17,C17),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H17" s="9" t="str">
-        <f t="array" ref="H17">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B17,C17),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H17">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B17,C17),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I17" s="9" t="str">
-        <f t="array" ref="I17">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B17,C17),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I17">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B17,C17),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J17" s="9" t="str">
-        <f t="array" ref="J17">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B17,C17),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J17">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B17,C17),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K17" s="9" t="str">
-        <f t="array" ref="K17">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B17,C17),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K17">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B17,C17),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L17" s="12" t="str">
-        <f t="array" ref="L17">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B17,C17),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L17">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B17,C17),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3485,31 +3495,31 @@
         <v>+III</v>
       </c>
       <c r="F18" s="9" t="str">
-        <f t="array" ref="F18">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B18,C18),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F18">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B18,C18),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f t="array" ref="G18">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B18,C18),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G18">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B18,C18),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H18" s="9" t="str">
-        <f t="array" ref="H18">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B18,C18),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H18">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B18,C18),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I18" s="9" t="str">
-        <f t="array" ref="I18">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B18,C18),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I18">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B18,C18),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J18" s="9" t="str">
-        <f t="array" ref="J18">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B18,C18),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J18">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B18,C18),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K18" s="9" t="str">
-        <f t="array" ref="K18">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B18,C18),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K18">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B18,C18),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L18" s="12" t="str">
-        <f t="array" ref="L18">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B18,C18),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L18">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B18,C18),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3529,31 +3539,31 @@
         <v>+III</v>
       </c>
       <c r="F19" s="9" t="str">
-        <f t="array" ref="F19">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B19,C19),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F19">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B19,C19),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="array" ref="G19">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B19,C19),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G19">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B19,C19),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H19" s="9" t="str">
-        <f t="array" ref="H19">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B19,C19),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H19">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B19,C19),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I19" s="9" t="str">
-        <f t="array" ref="I19">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B19,C19),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I19">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B19,C19),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J19" s="9" t="str">
-        <f t="array" ref="J19">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B19,C19),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J19">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B19,C19),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K19" s="9" t="str">
-        <f t="array" ref="K19">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B19,C19),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K19">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B19,C19),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L19" s="12" t="str">
-        <f t="array" ref="L19">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B19,C19),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L19">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B19,C19),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3573,31 +3583,31 @@
         <v>+III</v>
       </c>
       <c r="F20" s="9" t="str">
-        <f t="array" ref="F20">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B20,C20),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F20">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B20,C20),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G20" s="9" t="str">
-        <f t="array" ref="G20">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B20,C20),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G20">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B20,C20),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H20" s="9" t="str">
-        <f t="array" ref="H20">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B20,C20),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H20">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B20,C20),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I20" s="9" t="str">
-        <f t="array" ref="I20">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B20,C20),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I20">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B20,C20),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J20" s="9" t="str">
-        <f t="array" ref="J20">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B20,C20),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J20">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B20,C20),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K20" s="9" t="str">
-        <f t="array" ref="K20">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B20,C20),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K20">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B20,C20),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L20" s="12" t="str">
-        <f t="array" ref="L20">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B20,C20),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L20">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B20,C20),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3617,31 +3627,31 @@
         <v>+III</v>
       </c>
       <c r="F21" s="9" t="str">
-        <f t="array" ref="F21">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B21,C21),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F21">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B21,C21),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G21" s="9" t="str">
-        <f t="array" ref="G21">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B21,C21),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G21">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B21,C21),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H21" s="9" t="str">
-        <f t="array" ref="H21">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B21,C21),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H21">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B21,C21),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I21" s="9" t="str">
-        <f t="array" ref="I21">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B21,C21),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I21">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B21,C21),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J21" s="9" t="str">
-        <f t="array" ref="J21">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B21,C21),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J21">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B21,C21),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K21" s="9" t="str">
-        <f t="array" ref="K21">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B21,C21),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K21">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B21,C21),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L21" s="12" t="str">
-        <f t="array" ref="L21">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B21,C21),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L21">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B21,C21),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3661,31 +3671,31 @@
         <v>+III</v>
       </c>
       <c r="F22" s="9" t="str">
-        <f t="array" ref="F22">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B22,C22),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F22">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B22,C22),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G22" s="9" t="str">
-        <f t="array" ref="G22">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B22,C22),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G22">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B22,C22),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H22" s="9" t="str">
-        <f t="array" ref="H22">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B22,C22),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H22">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B22,C22),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I22" s="9" t="str">
-        <f t="array" ref="I22">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B22,C22),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I22">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B22,C22),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J22" s="9" t="str">
-        <f t="array" ref="J22">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B22,C22),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J22">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B22,C22),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K22" s="9" t="str">
-        <f t="array" ref="K22">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B22,C22),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K22">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B22,C22),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L22" s="12" t="str">
-        <f t="array" ref="L22">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B22,C22),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L22">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B22,C22),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3705,31 +3715,31 @@
         <v>+III</v>
       </c>
       <c r="F23" s="9" t="str">
-        <f t="array" ref="F23">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B23,C23),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F23">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B23,C23),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G23" s="9" t="str">
-        <f t="array" ref="G23">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B23,C23),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G23">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B23,C23),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H23" s="9" t="str">
-        <f t="array" ref="H23">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B23,C23),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H23">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B23,C23),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I23" s="9" t="str">
-        <f t="array" ref="I23">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B23,C23),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I23">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B23,C23),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J23" s="9" t="str">
-        <f t="array" ref="J23">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B23,C23),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J23">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B23,C23),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K23" s="9" t="str">
-        <f t="array" ref="K23">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B23,C23),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K23">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B23,C23),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L23" s="12" t="str">
-        <f t="array" ref="L23">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B23,C23),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L23">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B23,C23),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3749,31 +3759,31 @@
         <v>+III</v>
       </c>
       <c r="F24" s="9" t="str">
-        <f t="array" ref="F24">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B24,C24),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F24">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B24,C24),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G24" s="9" t="str">
-        <f t="array" ref="G24">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B24,C24),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G24">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B24,C24),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H24" s="9" t="str">
-        <f t="array" ref="H24">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B24,C24),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H24">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B24,C24),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I24" s="9" t="str">
-        <f t="array" ref="I24">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B24,C24),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I24">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B24,C24),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J24" s="9" t="str">
-        <f t="array" ref="J24">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B24,C24),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J24">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B24,C24),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K24" s="9" t="str">
-        <f t="array" ref="K24">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B24,C24),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K24">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B24,C24),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L24" s="12" t="str">
-        <f t="array" ref="L24">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B24,C24),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L24">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B24,C24),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3793,31 +3803,31 @@
         <v>+III</v>
       </c>
       <c r="F25" s="9" t="str">
-        <f t="array" ref="F25">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B25,C25),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F25">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B25,C25),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G25" s="9" t="str">
-        <f t="array" ref="G25">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B25,C25),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G25">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B25,C25),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H25" s="9" t="str">
-        <f t="array" ref="H25">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B25,C25),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H25">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B25,C25),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I25" s="9" t="str">
-        <f t="array" ref="I25">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B25,C25),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I25">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B25,C25),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J25" s="9" t="str">
-        <f t="array" ref="J25">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B25,C25),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J25">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B25,C25),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K25" s="9" t="str">
-        <f t="array" ref="K25">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B25,C25),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K25">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B25,C25),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L25" s="12" t="str">
-        <f t="array" ref="L25">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B25,C25),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L25">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B25,C25),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3837,31 +3847,31 @@
         <v>+III</v>
       </c>
       <c r="F26" s="9" t="str">
-        <f t="array" ref="F26">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B26,C26),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F26">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B26,C26),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G26" s="9" t="str">
-        <f t="array" ref="G26">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B26,C26),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G26">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B26,C26),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H26" s="9" t="str">
-        <f t="array" ref="H26">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B26,C26),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H26">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B26,C26),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I26" s="9" t="str">
-        <f t="array" ref="I26">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B26,C26),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I26">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B26,C26),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J26" s="9" t="str">
-        <f t="array" ref="J26">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B26,C26),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J26">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B26,C26),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K26" s="9" t="str">
-        <f t="array" ref="K26">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B26,C26),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K26">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B26,C26),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L26" s="12" t="str">
-        <f t="array" ref="L26">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B26,C26),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L26">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B26,C26),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3881,31 +3891,31 @@
         <v>+III</v>
       </c>
       <c r="F27" s="9" t="str">
-        <f t="array" ref="F27">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B27,C27),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F27">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B27,C27),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G27" s="9" t="str">
-        <f t="array" ref="G27">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B27,C27),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G27">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B27,C27),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H27" s="9" t="str">
-        <f t="array" ref="H27">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B27,C27),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H27">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B27,C27),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I27" s="9" t="str">
-        <f t="array" ref="I27">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B27,C27),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I27">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B27,C27),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J27" s="9" t="str">
-        <f t="array" ref="J27">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B27,C27),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J27">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B27,C27),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K27" s="9" t="str">
-        <f t="array" ref="K27">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B27,C27),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K27">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B27,C27),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L27" s="12" t="str">
-        <f t="array" ref="L27">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B27,C27),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L27">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B27,C27),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3925,31 +3935,31 @@
         <v>+III</v>
       </c>
       <c r="F28" s="9" t="str">
-        <f t="array" ref="F28">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B28,C28),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F28">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B28,C28),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G28" s="9" t="str">
-        <f t="array" ref="G28">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B28,C28),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G28">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B28,C28),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H28" s="9" t="str">
-        <f t="array" ref="H28">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B28,C28),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H28">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B28,C28),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I28" s="9" t="str">
-        <f t="array" ref="I28">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B28,C28),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I28">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B28,C28),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J28" s="9" t="str">
-        <f t="array" ref="J28">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B28,C28),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J28">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B28,C28),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K28" s="9" t="str">
-        <f t="array" ref="K28">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B28,C28),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K28">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B28,C28),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L28" s="12" t="str">
-        <f t="array" ref="L28">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B28,C28),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L28">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B28,C28),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -3969,31 +3979,31 @@
         <v>+III</v>
       </c>
       <c r="F29" s="9" t="str">
-        <f t="array" ref="F29">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B29,C29),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F29">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B29,C29),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G29" s="9" t="str">
-        <f t="array" ref="G29">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B29,C29),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G29">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B29,C29),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H29" s="9" t="str">
-        <f t="array" ref="H29">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B29,C29),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H29">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B29,C29),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I29" s="9" t="str">
-        <f t="array" ref="I29">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B29,C29),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I29">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B29,C29),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J29" s="9" t="str">
-        <f t="array" ref="J29">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B29,C29),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J29">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B29,C29),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K29" s="9" t="str">
-        <f t="array" ref="K29">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B29,C29),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K29">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B29,C29),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L29" s="12" t="str">
-        <f t="array" ref="L29">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B29,C29),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L29">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B29,C29),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -4013,31 +4023,31 @@
         <v>+III</v>
       </c>
       <c r="F30" s="9" t="str">
-        <f t="array" ref="F30">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B30,C30),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F30">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B30,C30),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G30" s="9" t="str">
-        <f t="array" ref="G30">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B30,C30),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G30">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B30,C30),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H30" s="9" t="str">
-        <f t="array" ref="H30">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B30,C30),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H30">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B30,C30),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I30" s="9" t="str">
-        <f t="array" ref="I30">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B30,C30),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I30">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B30,C30),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J30" s="9" t="str">
-        <f t="array" ref="J30">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B30,C30),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J30">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B30,C30),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K30" s="9" t="str">
-        <f t="array" ref="K30">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B30,C30),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K30">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B30,C30),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L30" s="12" t="str">
-        <f t="array" ref="L30">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B30,C30),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L30">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B30,C30),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -4057,31 +4067,31 @@
         <v>+III</v>
       </c>
       <c r="F31" s="9" t="str">
-        <f t="array" ref="F31">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B31,C31),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F31">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B31,C31),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G31" s="9" t="str">
-        <f t="array" ref="G31">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B31,C31),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G31">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B31,C31),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H31" s="9" t="str">
-        <f t="array" ref="H31">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B31,C31),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H31">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B31,C31),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I31" s="9" t="str">
-        <f t="array" ref="I31">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B31,C31),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I31">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B31,C31),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J31" s="9" t="str">
-        <f t="array" ref="J31">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B31,C31),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J31">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B31,C31),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K31" s="9" t="str">
-        <f t="array" ref="K31">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B31,C31),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K31">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B31,C31),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L31" s="12" t="str">
-        <f t="array" ref="L31">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B31,C31),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L31">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B31,C31),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -4101,31 +4111,31 @@
         <v>+III</v>
       </c>
       <c r="F32" s="9" t="str">
-        <f t="array" ref="F32">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B32,C32),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F32">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B32,C32),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G32" s="9" t="str">
-        <f t="array" ref="G32">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B32,C32),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G32">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B32,C32),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H32" s="9" t="str">
-        <f t="array" ref="H32">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B32,C32),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H32">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B32,C32),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I32" s="9" t="str">
-        <f t="array" ref="I32">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B32,C32),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I32">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B32,C32),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J32" s="9" t="str">
-        <f t="array" ref="J32">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B32,C32),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J32">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B32,C32),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K32" s="9" t="str">
-        <f t="array" ref="K32">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B32,C32),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K32">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B32,C32),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L32" s="12" t="str">
-        <f t="array" ref="L32">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B32,C32),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L32">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B32,C32),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -4145,31 +4155,31 @@
         <v>+III</v>
       </c>
       <c r="F33" s="9" t="str">
-        <f t="array" ref="F33">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B33,C33),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F33">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B33,C33),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G33" s="9" t="str">
-        <f t="array" ref="G33">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B33,C33),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G33">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B33,C33),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H33" s="9" t="str">
-        <f t="array" ref="H33">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B33,C33),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H33">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B33,C33),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I33" s="9" t="str">
-        <f t="array" ref="I33">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B33,C33),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I33">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B33,C33),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J33" s="9" t="str">
-        <f t="array" ref="J33">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B33,C33),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J33">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B33,C33),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K33" s="9" t="str">
-        <f t="array" ref="K33">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B33,C33),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K33">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B33,C33),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L33" s="12" t="str">
-        <f t="array" ref="L33">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B33,C33),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L33">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B33,C33),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -4189,31 +4199,31 @@
         <v>+III</v>
       </c>
       <c r="F34" s="9" t="str">
-        <f t="array" ref="F34">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B34,C34),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F34">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B34,C34),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G34" s="9" t="str">
-        <f t="array" ref="G34">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B34,C34),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G34">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B34,C34),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H34" s="9" t="str">
-        <f t="array" ref="H34">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B34,C34),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H34">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B34,C34),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I34" s="9" t="str">
-        <f t="array" ref="I34">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B34,C34),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I34">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B34,C34),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J34" s="9" t="str">
-        <f t="array" ref="J34">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B34,C34),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J34">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B34,C34),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K34" s="9" t="str">
-        <f t="array" ref="K34">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B34,C34),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K34">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B34,C34),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L34" s="12" t="str">
-        <f t="array" ref="L34">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B34,C34),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L34">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B34,C34),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -4233,31 +4243,31 @@
         <v>+III</v>
       </c>
       <c r="F35" s="9" t="str">
-        <f t="array" ref="F35">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B35,C35),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F35">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B35,C35),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G35" s="9" t="str">
-        <f t="array" ref="G35">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B35,C35),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G35">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B35,C35),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H35" s="9" t="str">
-        <f t="array" ref="H35">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B35,C35),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H35">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B35,C35),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I35" s="9" t="str">
-        <f t="array" ref="I35">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B35,C35),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I35">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B35,C35),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J35" s="9" t="str">
-        <f t="array" ref="J35">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B35,C35),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J35">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B35,C35),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K35" s="9" t="str">
-        <f t="array" ref="K35">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B35,C35),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K35">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B35,C35),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L35" s="12" t="str">
-        <f t="array" ref="L35">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B35,C35),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L35">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B35,C35),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -4277,31 +4287,31 @@
         <v>+III</v>
       </c>
       <c r="F36" s="9" t="str">
-        <f t="array" ref="F36">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B36,C36),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F36">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B36,C36),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G36" s="9" t="str">
-        <f t="array" ref="G36">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B36,C36),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G36">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B36,C36),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H36" s="9" t="str">
-        <f t="array" ref="H36">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B36,C36),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H36">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B36,C36),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I36" s="9" t="str">
-        <f t="array" ref="I36">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B36,C36),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I36">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B36,C36),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J36" s="9" t="str">
-        <f t="array" ref="J36">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B36,C36),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J36">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B36,C36),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K36" s="9" t="str">
-        <f t="array" ref="K36">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B36,C36),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K36">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B36,C36),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L36" s="12" t="str">
-        <f t="array" ref="L36">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B36,C36),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L36">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B36,C36),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -4321,31 +4331,31 @@
         <v>+III</v>
       </c>
       <c r="F37" s="9" t="str">
-        <f t="array" ref="F37">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B37,C37),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F37">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B37,C37),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G37" s="9" t="str">
-        <f t="array" ref="G37">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B37,C37),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G37">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B37,C37),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H37" s="9" t="str">
-        <f t="array" ref="H37">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B37,C37),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H37">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B37,C37),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I37" s="9" t="str">
-        <f t="array" ref="I37">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B37,C37),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I37">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B37,C37),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J37" s="9" t="str">
-        <f t="array" ref="J37">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B37,C37),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J37">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B37,C37),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K37" s="9" t="str">
-        <f t="array" ref="K37">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B37,C37),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K37">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B37,C37),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L37" s="12" t="str">
-        <f t="array" ref="L37">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B37,C37),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L37">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B37,C37),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -4365,31 +4375,31 @@
         <v>+III</v>
       </c>
       <c r="F38" s="9" t="str">
-        <f t="array" ref="F38">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B38,C38),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F38">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B38,C38),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G38" s="9" t="str">
-        <f t="array" ref="G38">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B38,C38),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G38">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B38,C38),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H38" s="9" t="str">
-        <f t="array" ref="H38">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B38,C38),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H38">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B38,C38),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I38" s="9" t="str">
-        <f t="array" ref="I38">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B38,C38),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I38">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B38,C38),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J38" s="9" t="str">
-        <f t="array" ref="J38">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B38,C38),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J38">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B38,C38),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K38" s="9" t="str">
-        <f t="array" ref="K38">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B38,C38),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K38">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B38,C38),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L38" s="12" t="str">
-        <f t="array" ref="L38">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B38,C38),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L38">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B38,C38),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -4409,31 +4419,31 @@
         <v>+III</v>
       </c>
       <c r="F39" s="9" t="str">
-        <f t="array" ref="F39">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B39,C39),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F39">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B39,C39),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G39" s="9" t="str">
-        <f t="array" ref="G39">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B39,C39),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G39">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B39,C39),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H39" s="9" t="str">
-        <f t="array" ref="H39">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B39,C39),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H39">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B39,C39),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I39" s="9" t="str">
-        <f t="array" ref="I39">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B39,C39),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I39">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B39,C39),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J39" s="9" t="str">
-        <f t="array" ref="J39">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B39,C39),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J39">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B39,C39),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K39" s="9" t="str">
-        <f t="array" ref="K39">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B39,C39),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K39">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B39,C39),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L39" s="12" t="str">
-        <f t="array" ref="L39">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B39,C39),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L39">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B39,C39),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -4453,31 +4463,31 @@
         <v>+III</v>
       </c>
       <c r="F40" s="9" t="str">
-        <f t="array" ref="F40">INDEX(STPH!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$15:$D$34&gt;AVERAGE(B40,C40),STPH!$D$15:$D$34)),STPH!$D$15:$D$34),1))</f>
+        <f t="array" ref="F40">INDEX(STPH!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STPH!$D$16:$D$35&gt;AVERAGE(B40,C40),STPH!$D$16:$D$35)),STPH!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="G40" s="9" t="str">
-        <f t="array" ref="G40">INDEX(STBI!$O$15:$O$34,IFERROR(MATCH(MIN(IF(STBI!$D$15:$D$34&gt;AVERAGE(B40,C40),STBI!$D$15:$D$34)),STBI!$D$15:$D$34),1))</f>
+        <f t="array" ref="G40">INDEX(STBI!$O$16:$O$35,IFERROR(MATCH(MIN(IF(STBI!$D$16:$D$35&gt;AVERAGE(B40,C40),STBI!$D$16:$D$35)),STBI!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="H40" s="9" t="str">
-        <f t="array" ref="H40">INDEX(GEKB!$K$15:$K$34,IFERROR(MATCH(MIN(IF(GEKB!$D$15:$D$34&gt;AVERAGE(B40,C40),GEKB!$D$15:$D$34)),GEKB!$D$15:$D$34),1))</f>
+        <f t="array" ref="H40">INDEX(GEKB!$K$16:$K$35,IFERROR(MATCH(MIN(IF(GEKB!$D$16:$D$35&gt;AVERAGE(B40,C40),GEKB!$D$16:$D$35)),GEKB!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="I40" s="9" t="str">
-        <f t="array" ref="I40">INDEX(DA!$K$15:$K$75,IFERROR(MATCH(MIN(IF(DA!$D$15:$D$75&gt;AVERAGE(B40,C40),DA!$D$15:$D$75)),DA!$D$15:$D$75),1))</f>
+        <f t="array" ref="I40">INDEX(DA!$K$16:$K$76,IFERROR(MATCH(MIN(IF(DA!$D$16:$D$76&gt;AVERAGE(B40,C40),DA!$D$16:$D$76)),DA!$D$16:$D$76),1))</f>
         <v>+III</v>
       </c>
       <c r="J40" s="9" t="str">
-        <f t="array" ref="J40">INDEX(STKWp!$K$15:$K$34,IFERROR(MATCH(MIN(IF(STKWp!$D$15:$D$34&gt;AVERAGE(B40,C40),STKWp!$D$15:$D$34)),STKWp!$D$15:$D$34),1))</f>
+        <f t="array" ref="J40">INDEX(STKWp!$K$16:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$16:$D$35&gt;AVERAGE(B40,C40),STKWp!$D$16:$D$35)),STKWp!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="K40" s="9" t="str">
-        <f t="array" ref="K40">INDEX(BSKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(BSKW!$D$15:$D$34&gt;AVERAGE(B40,C40),BSKW!$D$15:$D$34)),BSKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="K40">INDEX(BSKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$16:$D$35&gt;AVERAGE(B40,C40),BSKW!$D$16:$D$35)),BSKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
       <c r="L40" s="12" t="str">
-        <f t="array" ref="L40">INDEX(HTKW!$K$15:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$15:$D$34&gt;AVERAGE(B40,C40),HTKW!$D$15:$D$34)),HTKW!$D$15:$D$34),1))</f>
+        <f t="array" ref="L40">INDEX(HTKW!$K$16:$K$35,IFERROR(MATCH(MIN(IF(HTKW!$D$16:$D$35&gt;AVERAGE(B40,C40),HTKW!$D$16:$D$35)),HTKW!$D$16:$D$35),1))</f>
         <v>NR</v>
       </c>
     </row>
@@ -5675,10 +5685,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
-  <dimension ref="B2:Z36"/>
+  <dimension ref="B2:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5735,241 +5745,223 @@
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="26">
-        <f>IFERROR(IF(C5="P1",1-PRODUCT(Q15:Q34),MAX(S15:S34)),"GR")</f>
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C7" s="26">
-        <f>IF(C5="P1",1-PRODUCT(R15:R34),MAX(T15:T34))</f>
+        <f>IFERROR(IF(C5="P1",1-PRODUCT(Q16:Q35),MAX(S16:S35)),"GR")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" s="26">
-        <f>IFERROR(MAX(Y15:Y34),"GR")</f>
+        <f>IF(C5="P1",1-PRODUCT(R16:R35),MAX(T16:T35))</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="C9" s="26">
-        <f>MAX(Z15:Z34)</f>
+        <f>IFERROR(MAX(Y16:Y35),"GR")</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="26">
+        <f>MAX(Z16:Z35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="26">
-        <f>IFERROR(1-PRODUCT(Q15:Q34),"GR")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41" t="s">
+      <c r="C11" s="26">
+        <f>IFERROR(1-PRODUCT(Q16:Q35),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="27">
-        <f>1-PRODUCT(R15:R34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q13" t="s">
+      <c r="C12" s="27">
+        <f>1-PRODUCT(R16:R35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    <row r="15" spans="2:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="36" t="s">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R15" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="S14" s="37" t="s">
+      <c r="S15" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="T14" s="37" t="s">
+      <c r="T15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="U14" s="38" t="s">
+      <c r="U15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="V14" s="38" t="s">
+      <c r="V15" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="W14" s="4"/>
-      <c r="X14" s="38" t="s">
+      <c r="W15" s="4"/>
+      <c r="X15" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="Y14" s="38" t="s">
+      <c r="Y15" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="39" t="s">
+      <c r="Z15" s="39" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>5.7050000000000001</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="3" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="29">
-        <f t="shared" ref="L15" si="0">IF($E15="Nee",0,IF(ISNUMBER(J15),J15,IF(ISNUMBER(G15),G15,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <f t="shared" ref="M15" si="1">IF($E15="Nee",0,IF(ISNUMBER(K15),K15,IF(ISNUMBER(H15),H15,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
-        <f t="shared" ref="N15" si="2">IF(ISNUMBER(L15),IF(M15=0,1,M15/L15),"-")</f>
+      <c r="J16" s="5"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="29">
+        <f t="shared" ref="L16" si="0">IF($E16="Nee",0,IF(ISNUMBER(J16),J16,IF(ISNUMBER(G16),G16,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" ref="M16" si="1">IF($E16="Nee",0,IF(ISNUMBER(K16),K16,IF(ISNUMBER(H16),H16,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" ref="N16" si="2">IF(ISNUMBER(L16),IF(M16=0,1,M16/L16),"-")</f>
         <v>1</v>
       </c>
-      <c r="O15" s="30" t="str">
-        <f>IF(E15="Nee","NR",IF(ISNUMBER($M15),W15,IF($X15,"D","ND")))</f>
-        <v>NR</v>
-      </c>
-      <c r="Q15" s="31">
-        <f t="shared" ref="Q15" si="3">IF(AND(F15="Geen faalkans",I15="Nee"),1,1-M15)</f>
+      <c r="O16" s="30" t="str">
+        <f>IF(E16="Nee","NR",IF(ISNUMBER($M16),W16,IF($X16,"D","ND")))</f>
+        <v>NR</v>
+      </c>
+      <c r="Q16" s="31">
+        <f t="shared" ref="Q16" si="3">IF(AND(F16="Geen faalkans",I16="Nee"),1,1-M16)</f>
         <v>1</v>
       </c>
-      <c r="R15" s="10">
-        <f>IF(M15="-",1,Q15)</f>
+      <c r="R16" s="10">
+        <f>IF(M16="-",1,Q16)</f>
         <v>1</v>
       </c>
-      <c r="S15" s="10">
-        <f t="shared" ref="S15" si="4">IF(AND(F15="Geen faalkans",I15="Nee"),0,L15*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="10">
-        <f>IF(L15="-",0,S15)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="9">
-        <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="9">
-        <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+      <c r="S16" s="10">
+        <f t="shared" ref="S16" si="4">IF(AND(F16="Geen faalkans",I16="Nee"),0,L16*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
+        <f>IF(L16="-",0,S16)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
-      <c r="W15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V15)</f>
-        <v>+III</v>
-      </c>
-      <c r="X15" s="9" t="b">
-        <f>IF($E15="Ja",IF($I15="Ja",NOT(ISNUMBER($J15)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="10">
-        <f>1-Q15</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="26">
-        <f>1-R15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="32"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="12"/>
+      <c r="W16" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V16)</f>
+        <v>+III</v>
+      </c>
+      <c r="X16" s="9" t="b">
+        <f>IF($E16="Ja",IF($I16="Ja",NOT(ISNUMBER($J16)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="10">
+        <f>1-Q16</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="26">
+        <f>1-R16</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -6413,50 +6405,76 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="12"/>
     </row>
-    <row r="34" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="34"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="17"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q35" s="1"/>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="32"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="12"/>
+    </row>
+    <row r="35" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="34"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="17"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Q36" s="1"/>
     </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G15:H34">
+  <conditionalFormatting sqref="G16:H35">
     <cfRule type="expression" dxfId="103" priority="11">
-      <formula>IF($E15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:K34">
+  <conditionalFormatting sqref="J16:K35">
     <cfRule type="expression" dxfId="102" priority="10">
-      <formula>IF($I15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($I16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15:O34">
+  <conditionalFormatting sqref="O16:O35">
     <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -6474,7 +6492,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="12" operator="endsWith" id="{F4C956AC-4E51-489A-B485-D8BDC4A2FBD8}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -6485,7 +6503,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="13" operator="endsWith" id="{EC1E636F-FA52-4882-8914-4A6967CF2391}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -6496,7 +6514,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="14" operator="endsWith" id="{FFF59E8A-EABB-417F-BB55-82036CECB9D8}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -6507,7 +6525,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="15" operator="endsWith" id="{B198F5CD-E767-4F17-B69C-63325B705E57}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -6518,7 +6536,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="16" operator="containsText" id="{3DC54A52-4129-476D-B4F0-C6819CA98DA8}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -6529,7 +6547,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="17" operator="containsText" id="{679DAC17-7B4C-4FB7-B8DA-924271D929B5}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -6539,17 +6557,17 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>O15:O34</xm:sqref>
+          <xm:sqref>O16:O35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E7586F0-4A97-4FE3-A954-2F42494980C3}">
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E35:E50 F15:F34</xm:sqref>
+          <xm:sqref>E36:E51 F16:F35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6559,10 +6577,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFA30DD-EAF1-4973-B290-E12CB5036732}">
-  <dimension ref="B2:Z36"/>
+  <dimension ref="B2:Z37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6619,241 +6637,223 @@
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="26">
-        <f>IFERROR(IF(C5="P1",1-PRODUCT(Q15:Q34),MAX(S15:S34)),"GR")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
-        <v>49</v>
-      </c>
       <c r="C7" s="26">
-        <f>IF(C5="P1",1-PRODUCT(R15:R34),MAX(T15:T34))</f>
+        <f>IFERROR(IF(C5="P1",1-PRODUCT(Q16:Q35),MAX(S16:S35)),"GR")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" s="26">
-        <f>IFERROR(MAX(Y15:Y34),"GR")</f>
+        <f>IF(C5="P1",1-PRODUCT(R16:R35),MAX(T16:T35))</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="C9" s="26">
-        <f>MAX(Z15:Z34)</f>
+        <f>IFERROR(MAX(Y16:Y35),"GR")</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="26">
+        <f>MAX(Z16:Z35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="26">
-        <f>IFERROR(1-PRODUCT(Q15:Q34),"GR")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41" t="s">
+      <c r="C11" s="26">
+        <f>IFERROR(1-PRODUCT(Q16:Q35),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="27">
-        <f>1-PRODUCT(R15:R34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q13" t="s">
+      <c r="C12" s="27">
+        <f>1-PRODUCT(R16:R35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    <row r="15" spans="2:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="36" t="s">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R15" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="S14" s="37" t="s">
+      <c r="S15" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="T14" s="37" t="s">
+      <c r="T15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="U14" s="38" t="s">
+      <c r="U15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="V14" s="38" t="s">
+      <c r="V15" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="W14" s="4"/>
-      <c r="X14" s="38" t="s">
+      <c r="W15" s="4"/>
+      <c r="X15" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="Y14" s="38" t="s">
+      <c r="Y15" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="Z14" s="39" t="s">
+      <c r="Z15" s="39" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>5.7050000000000001</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="3" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="29">
-        <f t="shared" ref="L15:M15" si="0">IF($E15="Nee",0,IF(ISNUMBER(J15),J15,IF(ISNUMBER(G15),G15,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
+      <c r="J16" s="5"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="29">
+        <f t="shared" ref="L16:M16" si="0">IF($E16="Nee",0,IF(ISNUMBER(J16),J16,IF(ISNUMBER(G16),G16,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N15" s="6">
-        <f t="shared" ref="N15" si="1">IF(ISNUMBER(L15),IF(M15=0,1,M15/L15),"-")</f>
+      <c r="N16" s="6">
+        <f t="shared" ref="N16" si="1">IF(ISNUMBER(L16),IF(M16=0,1,M16/L16),"-")</f>
         <v>1</v>
       </c>
-      <c r="O15" s="30" t="str">
-        <f>IF(E15="Nee","NR",IF(ISNUMBER($M15),W15,IF($X15,"D","ND")))</f>
-        <v>NR</v>
-      </c>
-      <c r="Q15" s="31">
-        <f t="shared" ref="Q15" si="2">IF(AND(F15="Geen faalkans",I15="Nee"),1,1-M15)</f>
+      <c r="O16" s="30" t="str">
+        <f>IF(E16="Nee","NR",IF(ISNUMBER($M16),W16,IF($X16,"D","ND")))</f>
+        <v>NR</v>
+      </c>
+      <c r="Q16" s="31">
+        <f t="shared" ref="Q16" si="2">IF(AND(F16="Geen faalkans",I16="Nee"),1,1-M16)</f>
         <v>1</v>
       </c>
-      <c r="R15" s="10">
-        <f>IF(M15="-",1,Q15)</f>
+      <c r="R16" s="10">
+        <f>IF(M16="-",1,Q16)</f>
         <v>1</v>
       </c>
-      <c r="S15" s="10">
-        <f t="shared" ref="S15" si="3">IF(AND(F15="Geen faalkans",I15="Nee"),0,L15*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="10">
-        <f>IF(L15="-",0,S15)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="9">
-        <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="9">
-        <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+      <c r="S16" s="10">
+        <f t="shared" ref="S16" si="3">IF(AND(F16="Geen faalkans",I16="Nee"),0,L16*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
+        <f>IF(L16="-",0,S16)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
-      <c r="W15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V15)</f>
-        <v>+III</v>
-      </c>
-      <c r="X15" s="9" t="b">
-        <f>IF($E15="Ja",IF($I15="Ja",NOT(ISNUMBER($J15)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="10">
-        <f>1-Q15</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="26">
-        <f>1-R15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="32"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="12"/>
+      <c r="W16" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V16)</f>
+        <v>+III</v>
+      </c>
+      <c r="X16" s="9" t="b">
+        <f>IF($E16="Ja",IF($I16="Ja",NOT(ISNUMBER($J16)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="10">
+        <f>1-Q16</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="26">
+        <f>1-R16</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -7297,50 +7297,76 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="12"/>
     </row>
-    <row r="34" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="34"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="17"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q35" s="1"/>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="32"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="12"/>
+    </row>
+    <row r="35" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="34"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="17"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Q36" s="1"/>
     </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G15:H34">
+  <conditionalFormatting sqref="G16:H35">
     <cfRule type="expression" dxfId="92" priority="11">
-      <formula>IF($E15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:K34">
+  <conditionalFormatting sqref="J16:K35">
     <cfRule type="expression" dxfId="91" priority="10">
-      <formula>IF($I15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($I16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15:O34">
+  <conditionalFormatting sqref="O16:O35">
     <cfRule type="cellIs" dxfId="90" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -7358,7 +7384,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="18" operator="endsWith" id="{BE7CEC02-BF34-4418-BA82-1F9327982DD9}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -7369,7 +7395,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="19" operator="endsWith" id="{8B8AF12F-6D43-41F5-A825-07E4CD293723}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -7380,7 +7406,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="20" operator="endsWith" id="{C08839C3-1BBE-44B3-9E34-E7A0C5F8DF48}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -7391,7 +7417,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="21" operator="endsWith" id="{609609D6-F910-4ACA-AD7C-326B654C721E}">
-            <xm:f>RIGHT(O15,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(O16,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -7402,7 +7428,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="22" operator="containsText" id="{B5912E85-BF07-4182-88DE-E52A178CDED9}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -7413,7 +7439,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="23" operator="containsText" id="{A99BDEDF-CF44-4426-B3A0-7E5479615479}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -7423,17 +7449,17 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>O15:O34</xm:sqref>
+          <xm:sqref>O16:O35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16F18BE3-9053-456B-B64F-325B398B1C3F}">
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E35:E50 F15:F34</xm:sqref>
+          <xm:sqref>E36:E51 F16:F35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7443,10 +7469,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
-  <dimension ref="B2:V77"/>
+  <dimension ref="B2:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7499,215 +7525,201 @@
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="26">
-        <f>IFERROR(IF(C5="P1",1-PRODUCT(M15:M75),MAX(O15:O75)),"GR")</f>
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C7" s="26">
-        <f>IF(C5="P1",1-PRODUCT(N15:N75),MAX(P15:P75))</f>
+        <f>IFERROR(IF(C5="P1",1-PRODUCT(M16:M76),MAX(O16:O76)),"GR")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" s="26">
-        <f>IFERROR(MAX(U15:U75),"GR")</f>
+        <f>IF(C5="P1",1-PRODUCT(N16:N76),MAX(P16:P76))</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="C9" s="26">
-        <f>MAX(V15:V75)</f>
+        <f>IFERROR(MAX(U16:U76),"GR")</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="26">
+        <f>MAX(V16:V76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="26">
-        <f>IFERROR(1-PRODUCT(M15:M75),"GR")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41" t="s">
+      <c r="C11" s="26">
+        <f>IFERROR(1-PRODUCT(M16:M76),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="27">
-        <f>1-PRODUCT(N15:N75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
+      <c r="C12" s="27">
+        <f>1-PRODUCT(N16:N76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    <row r="15" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="36" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N15" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O15" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="37" t="s">
+      <c r="P15" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="Q14" s="38" t="s">
+      <c r="Q15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R15" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="38" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="U14" s="38" t="s">
+      <c r="U15" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="V14" s="39" t="s">
+      <c r="V15" s="39" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>5.7050000000000001</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="3" t="s">
+      <c r="G16" s="25"/>
+      <c r="H16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="5">
-        <f>IF($E15="Nee",0,IF(ISNUMBER(I15),I15,IF(ISNUMBER(G15),G15,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="30" t="str">
-        <f>IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
-        <v>NR</v>
-      </c>
-      <c r="M15" s="31">
-        <f t="shared" ref="M15" si="0">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
+      <c r="I16" s="25"/>
+      <c r="J16" s="5">
+        <f>IF($E16="Nee",0,IF(ISNUMBER(I16),I16,IF(ISNUMBER(G16),G16,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="30" t="str">
+        <f>IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
+        <v>NR</v>
+      </c>
+      <c r="M16" s="31">
+        <f t="shared" ref="M16" si="0">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
         <v>1</v>
       </c>
-      <c r="N15" s="10">
-        <f t="shared" ref="N15" si="1">IF(J15="-",1,M15)</f>
+      <c r="N16" s="10">
+        <f t="shared" ref="N16" si="1">IF(J16="-",1,M16)</f>
         <v>1</v>
       </c>
-      <c r="O15" s="10">
-        <f t="shared" ref="O15" si="2">IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f>IF(J15="-",0,O15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+      <c r="O16" s="10">
+        <f t="shared" ref="O16" si="2">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <f>IF(J16="-",0,O16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
-      <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>+III</v>
-      </c>
-      <c r="T15" s="9" t="b">
-        <f>IF($E15="Ja",IF($H15="Ja",NOT(ISNUMBER($I15)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="10">
-        <f>1-M15</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="26">
-        <f>1-N15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="32"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="12"/>
+      <c r="S16" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
+        <v>+III</v>
+      </c>
+      <c r="T16" s="9" t="b">
+        <f>IF($E16="Ja",IF($H16="Ja",NOT(ISNUMBER($I16)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="10">
+        <f>1-M16</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="26">
+        <f>1-N16</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -8985,46 +8997,68 @@
       <c r="U74" s="9"/>
       <c r="V74" s="12"/>
     </row>
-    <row r="75" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="13"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="34"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
-      <c r="T75" s="14"/>
-      <c r="U75" s="14"/>
-      <c r="V75" s="17"/>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M76" s="1"/>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="32"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="12"/>
+    </row>
+    <row r="76" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="13"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="34"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="14"/>
+      <c r="U76" s="14"/>
+      <c r="V76" s="17"/>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M77" s="1"/>
     </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M78" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G15:G75">
+  <conditionalFormatting sqref="G16:G76">
     <cfRule type="expression" dxfId="81" priority="11">
-      <formula>IF($E15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I75">
+  <conditionalFormatting sqref="I16:I76">
     <cfRule type="expression" dxfId="80" priority="10">
-      <formula>IF($H15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K75">
+  <conditionalFormatting sqref="K16:K76">
     <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -9042,7 +9076,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="30" operator="endsWith" id="{66C1998D-15BB-4F32-86A4-1C542E19908B}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -9053,7 +9087,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="31" operator="endsWith" id="{6418FE22-99A5-4340-8D15-7412BDDECB23}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -9064,7 +9098,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="32" operator="endsWith" id="{2E1F4C73-7BF4-44FB-95BB-E1E18C41151A}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -9075,7 +9109,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="33" operator="endsWith" id="{F6D5C182-9535-4ABE-A15A-43A844BD5583}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -9086,7 +9120,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="34" operator="containsText" id="{A8878CEC-0269-4E5C-8639-1D28F9774243}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -9097,7 +9131,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="35" operator="containsText" id="{EBB6C8A2-6184-4577-852F-E10D11AB01B0}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -9107,7 +9141,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K15:K75</xm:sqref>
+          <xm:sqref>K16:K76</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9117,7 +9151,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E76:E91 F15:F75</xm:sqref>
+          <xm:sqref>E77:E92 F16:F76</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9127,10 +9161,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA3C0E-3A5C-4A61-A32F-6BC05AD0EB33}">
-  <dimension ref="B2:V58"/>
+  <dimension ref="B2:V59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9184,243 +9218,178 @@
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="26">
-        <f>IFERROR(IF(C5="P1",1-PRODUCT(M15:M54),MAX(O15:O54)),"GR")</f>
-        <v>4.6800000000000002E-8</v>
+        <v>152</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C7" s="26">
-        <f>IF(C5="P1",1-PRODUCT(N15:N54),MAX(P15:P54))</f>
+        <f>IFERROR(IF(C5="P1",1-PRODUCT(M16:M55),MAX(O16:O55)),"GR")</f>
         <v>4.6800000000000002E-8</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" s="26">
-        <f>IFERROR(MAX(U15:U54),"GR")</f>
-        <v>2.340000004874554E-8</v>
+        <f>IF(C5="P1",1-PRODUCT(N16:N55),MAX(P16:P55))</f>
+        <v>4.6800000000000002E-8</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="C9" s="26">
-        <f>MAX(V15:V54)</f>
+        <f>IFERROR(MAX(U16:U55),"GR")</f>
         <v>2.340000004874554E-8</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="26">
+        <f>MAX(V16:V55)</f>
+        <v>2.340000004874554E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="26">
-        <f>IFERROR(1-PRODUCT(M15:M54),"GR")</f>
+      <c r="C11" s="26">
+        <f>IFERROR(1-PRODUCT(M16:M55),"GR")</f>
         <v>8.8919961671596326E-7</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41" t="s">
+    <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="27">
-        <f>1-PRODUCT(N15:N54)</f>
+      <c r="C12" s="27">
+        <f>1-PRODUCT(N16:N55)</f>
         <v>8.8919961671596326E-7</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
+    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    <row r="15" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="36" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N15" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O15" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="P14" s="37" t="s">
+      <c r="P15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="Q14" s="38" t="s">
+      <c r="Q15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R15" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="38" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="U14" s="38" t="s">
+      <c r="U15" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="V14" s="39" t="s">
+      <c r="V15" s="39" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="75" t="s">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="71">
-        <v>0</v>
-      </c>
-      <c r="D15" s="71">
+      <c r="C16" s="71">
+        <v>0</v>
+      </c>
+      <c r="D16" s="71">
         <v>0.27700000000000002</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E16" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F16" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="79">
+      <c r="G16" s="79">
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="H15" s="75" t="s">
+      <c r="H16" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="71">
-        <f>IF($E15="Nee",0,IF(ISNUMBER(I15),I15,IF(ISNUMBER(G15),G15,"-")))</f>
+      <c r="I16" s="66"/>
+      <c r="J16" s="71">
+        <f>IF($E16="Nee",0,IF(ISNUMBER(I16),I16,IF(ISNUMBER(G16),G16,"-")))</f>
         <v>2.3400000000000001E-8</v>
       </c>
-      <c r="K15" s="77" t="str">
-        <f t="shared" ref="K15:K52" si="0">IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
-        <v>+III</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="31">
-        <f t="shared" ref="M15" si="1">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
-        <v>0.99999997659999995</v>
-      </c>
-      <c r="N15" s="10">
-        <f t="shared" ref="N15" si="2">IF(J15="-",1,M15)</f>
-        <v>0.99999997659999995</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" ref="O15" si="3">IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
-        <v>4.6800000000000002E-8</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" ref="P15" si="4">IF(J15="-",0,O15)</f>
-        <v>4.6800000000000002E-8</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333335E-7</v>
-      </c>
-      <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>+III</v>
-      </c>
-      <c r="T15" s="9" t="b">
-        <f>IF($E15="Ja",IF($H15="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="81">
-        <f>1-M15</f>
-        <v>2.340000004874554E-8</v>
-      </c>
-      <c r="V15" s="83">
-        <f>1-N15</f>
-        <v>2.340000004874554E-8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="73">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D16" s="73">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="E16" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="78">
-        <v>2.3400000000000001E-8</v>
-      </c>
-      <c r="H16" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="70"/>
-      <c r="J16" s="73">
-        <f t="shared" ref="J16:J52" si="5">IF($E16="Nee",0,IF(ISNUMBER(I16),I16,IF(ISNUMBER(G16),G16,"-")))</f>
-        <v>2.3400000000000001E-8</v>
-      </c>
-      <c r="K16" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="K16" s="77" t="str">
+        <f t="shared" ref="K16:K53" si="0">IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
         <v>+III</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="31">
-        <f t="shared" ref="M16:M52" si="6">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
+        <f t="shared" ref="M16" si="1">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
         <v>0.99999997659999995</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" ref="N16:N52" si="7">IF(J16="-",1,M16)</f>
+        <f t="shared" ref="N16" si="2">IF(J16="-",1,M16)</f>
         <v>0.99999997659999995</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" ref="O16:O52" si="8">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
+        <f t="shared" ref="O16" si="3">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" ref="P16:P52" si="9">IF(J16="-",0,O16)</f>
+        <f t="shared" ref="P16" si="4">IF(J16="-",0,O16)</f>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q16" s="9">
@@ -9440,23 +9409,23 @@
         <v>0</v>
       </c>
       <c r="U16" s="81">
-        <f t="shared" ref="U16:U54" si="10">1-M16</f>
+        <f>1-M16</f>
         <v>2.340000004874554E-8</v>
       </c>
       <c r="V16" s="83">
-        <f t="shared" ref="V16:V52" si="11">1-N16</f>
+        <f>1-N16</f>
         <v>2.340000004874554E-8</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="73">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D17" s="73">
         <v>0.53200000000000003</v>
-      </c>
-      <c r="D17" s="73">
-        <v>0.755</v>
       </c>
       <c r="E17" s="74" t="s">
         <v>28</v>
@@ -9472,7 +9441,7 @@
       </c>
       <c r="I17" s="70"/>
       <c r="J17" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J17:J53" si="5">IF($E17="Nee",0,IF(ISNUMBER(I17),I17,IF(ISNUMBER(G17),G17,"-")))</f>
         <v>2.3400000000000001E-8</v>
       </c>
       <c r="K17" s="78" t="str">
@@ -9481,19 +9450,19 @@
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M17:M53" si="6">IF(AND(F17="Geen faalkans",H17="Nee"),1,1-J17)</f>
         <v>0.99999997659999995</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N17:N53" si="7">IF(J17="-",1,M17)</f>
         <v>0.99999997659999995</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="O17:O53" si="8">IF(AND(F17="Geen faalkans",H17="Nee"),0,J17*$C$3)</f>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P17:P53" si="9">IF(J17="-",0,O17)</f>
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="Q17" s="9">
@@ -9513,23 +9482,23 @@
         <v>0</v>
       </c>
       <c r="U17" s="81">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="U17:U55" si="10">1-M17</f>
         <v>2.340000004874554E-8</v>
       </c>
       <c r="V17" s="83">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="V17:V53" si="11">1-N17</f>
         <v>2.340000004874554E-8</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="73">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D18" s="73">
         <v>0.755</v>
-      </c>
-      <c r="D18" s="73">
-        <v>0.91300000000000003</v>
       </c>
       <c r="E18" s="74" t="s">
         <v>28</v>
@@ -9596,13 +9565,13 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="73">
+        <v>0.755</v>
+      </c>
+      <c r="D19" s="73">
         <v>0.91300000000000003</v>
-      </c>
-      <c r="D19" s="73">
-        <v>1.0509999999999999</v>
       </c>
       <c r="E19" s="74" t="s">
         <v>28</v>
@@ -9669,13 +9638,13 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="73">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D20" s="73">
         <v>1.0509999999999999</v>
-      </c>
-      <c r="D20" s="73">
-        <v>1.214</v>
       </c>
       <c r="E20" s="74" t="s">
         <v>28</v>
@@ -9742,13 +9711,13 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="73">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="D21" s="73">
         <v>1.214</v>
-      </c>
-      <c r="D21" s="73">
-        <v>1.383</v>
       </c>
       <c r="E21" s="74" t="s">
         <v>28</v>
@@ -9815,13 +9784,13 @@
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="73">
+        <v>1.214</v>
+      </c>
+      <c r="D22" s="73">
         <v>1.383</v>
-      </c>
-      <c r="D22" s="73">
-        <v>1.5289999999999999</v>
       </c>
       <c r="E22" s="74" t="s">
         <v>28</v>
@@ -9888,13 +9857,13 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="73">
+        <v>1.383</v>
+      </c>
+      <c r="D23" s="73">
         <v>1.5289999999999999</v>
-      </c>
-      <c r="D23" s="73">
-        <v>1.661</v>
       </c>
       <c r="E23" s="74" t="s">
         <v>28</v>
@@ -9961,13 +9930,13 @@
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="73">
+        <v>1.5289999999999999</v>
+      </c>
+      <c r="D24" s="73">
         <v>1.661</v>
-      </c>
-      <c r="D24" s="73">
-        <v>1.79</v>
       </c>
       <c r="E24" s="74" t="s">
         <v>28</v>
@@ -10034,13 +10003,13 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="73">
+        <v>1.661</v>
+      </c>
+      <c r="D25" s="73">
         <v>1.79</v>
-      </c>
-      <c r="D25" s="73">
-        <v>1.929</v>
       </c>
       <c r="E25" s="74" t="s">
         <v>28</v>
@@ -10107,13 +10076,13 @@
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="73">
+        <v>1.79</v>
+      </c>
+      <c r="D26" s="73">
         <v>1.929</v>
-      </c>
-      <c r="D26" s="73">
-        <v>2.0910000000000002</v>
       </c>
       <c r="E26" s="74" t="s">
         <v>28</v>
@@ -10180,13 +10149,13 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="73">
+        <v>1.929</v>
+      </c>
+      <c r="D27" s="73">
         <v>2.0910000000000002</v>
-      </c>
-      <c r="D27" s="73">
-        <v>2.254</v>
       </c>
       <c r="E27" s="74" t="s">
         <v>28</v>
@@ -10253,13 +10222,13 @@
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="73">
+        <v>2.0910000000000002</v>
+      </c>
+      <c r="D28" s="73">
         <v>2.254</v>
-      </c>
-      <c r="D28" s="73">
-        <v>2.395</v>
       </c>
       <c r="E28" s="74" t="s">
         <v>28</v>
@@ -10326,13 +10295,13 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="73">
+        <v>2.254</v>
+      </c>
+      <c r="D29" s="73">
         <v>2.395</v>
-      </c>
-      <c r="D29" s="73">
-        <v>2.524</v>
       </c>
       <c r="E29" s="74" t="s">
         <v>28</v>
@@ -10399,13 +10368,13 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="73">
+        <v>2.395</v>
+      </c>
+      <c r="D30" s="73">
         <v>2.524</v>
-      </c>
-      <c r="D30" s="73">
-        <v>2.6560000000000001</v>
       </c>
       <c r="E30" s="74" t="s">
         <v>28</v>
@@ -10472,13 +10441,13 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="73">
+        <v>2.524</v>
+      </c>
+      <c r="D31" s="73">
         <v>2.6560000000000001</v>
-      </c>
-      <c r="D31" s="73">
-        <v>2.7959999999999998</v>
       </c>
       <c r="E31" s="74" t="s">
         <v>28</v>
@@ -10545,13 +10514,13 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="73">
+        <v>2.6560000000000001</v>
+      </c>
+      <c r="D32" s="73">
         <v>2.7959999999999998</v>
-      </c>
-      <c r="D32" s="73">
-        <v>2.9569999999999999</v>
       </c>
       <c r="E32" s="74" t="s">
         <v>28</v>
@@ -10618,13 +10587,13 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="73">
+        <v>2.7959999999999998</v>
+      </c>
+      <c r="D33" s="73">
         <v>2.9569999999999999</v>
-      </c>
-      <c r="D33" s="73">
-        <v>3.129</v>
       </c>
       <c r="E33" s="74" t="s">
         <v>28</v>
@@ -10691,13 +10660,13 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="73">
+        <v>2.9569999999999999</v>
+      </c>
+      <c r="D34" s="73">
         <v>3.129</v>
-      </c>
-      <c r="D34" s="73">
-        <v>3.302</v>
       </c>
       <c r="E34" s="74" t="s">
         <v>28</v>
@@ -10764,13 +10733,13 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="76" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C35" s="73">
+        <v>3.129</v>
+      </c>
+      <c r="D35" s="73">
         <v>3.302</v>
-      </c>
-      <c r="D35" s="73">
-        <v>3.4630000000000001</v>
       </c>
       <c r="E35" s="74" t="s">
         <v>28</v>
@@ -10837,13 +10806,13 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="73">
+        <v>3.302</v>
+      </c>
+      <c r="D36" s="73">
         <v>3.4630000000000001</v>
-      </c>
-      <c r="D36" s="73">
-        <v>3.5960000000000001</v>
       </c>
       <c r="E36" s="74" t="s">
         <v>28</v>
@@ -10910,13 +10879,13 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="73">
+        <v>3.4630000000000001</v>
+      </c>
+      <c r="D37" s="73">
         <v>3.5960000000000001</v>
-      </c>
-      <c r="D37" s="73">
-        <v>3.726</v>
       </c>
       <c r="E37" s="74" t="s">
         <v>28</v>
@@ -10983,13 +10952,13 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" s="73">
+        <v>3.5960000000000001</v>
+      </c>
+      <c r="D38" s="73">
         <v>3.726</v>
-      </c>
-      <c r="D38" s="73">
-        <v>3.8559999999999999</v>
       </c>
       <c r="E38" s="74" t="s">
         <v>28</v>
@@ -11056,13 +11025,13 @@
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="73">
+        <v>3.726</v>
+      </c>
+      <c r="D39" s="73">
         <v>3.8559999999999999</v>
-      </c>
-      <c r="D39" s="73">
-        <v>3.9809999999999999</v>
       </c>
       <c r="E39" s="74" t="s">
         <v>28</v>
@@ -11129,13 +11098,13 @@
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" s="73">
+        <v>3.8559999999999999</v>
+      </c>
+      <c r="D40" s="73">
         <v>3.9809999999999999</v>
-      </c>
-      <c r="D40" s="73">
-        <v>4.1050000000000004</v>
       </c>
       <c r="E40" s="74" t="s">
         <v>28</v>
@@ -11202,13 +11171,13 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="73">
+        <v>3.9809999999999999</v>
+      </c>
+      <c r="D41" s="73">
         <v>4.1050000000000004</v>
-      </c>
-      <c r="D41" s="73">
-        <v>4.2359999999999998</v>
       </c>
       <c r="E41" s="74" t="s">
         <v>28</v>
@@ -11275,13 +11244,13 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" s="73">
+        <v>4.1050000000000004</v>
+      </c>
+      <c r="D42" s="73">
         <v>4.2359999999999998</v>
-      </c>
-      <c r="D42" s="73">
-        <v>4.38</v>
       </c>
       <c r="E42" s="74" t="s">
         <v>28</v>
@@ -11348,13 +11317,13 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="73">
+        <v>4.2359999999999998</v>
+      </c>
+      <c r="D43" s="73">
         <v>4.38</v>
-      </c>
-      <c r="D43" s="73">
-        <v>4.5129999999999999</v>
       </c>
       <c r="E43" s="74" t="s">
         <v>28</v>
@@ -11421,13 +11390,13 @@
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C44" s="73">
+        <v>4.38</v>
+      </c>
+      <c r="D44" s="73">
         <v>4.5129999999999999</v>
-      </c>
-      <c r="D44" s="73">
-        <v>4.6340000000000003</v>
       </c>
       <c r="E44" s="74" t="s">
         <v>28</v>
@@ -11494,13 +11463,13 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" s="73">
+        <v>4.5129999999999999</v>
+      </c>
+      <c r="D45" s="73">
         <v>4.6340000000000003</v>
-      </c>
-      <c r="D45" s="73">
-        <v>4.7480000000000002</v>
       </c>
       <c r="E45" s="74" t="s">
         <v>28</v>
@@ -11567,13 +11536,13 @@
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" s="73">
+        <v>4.6340000000000003</v>
+      </c>
+      <c r="D46" s="73">
         <v>4.7480000000000002</v>
-      </c>
-      <c r="D46" s="73">
-        <v>4.8609999999999998</v>
       </c>
       <c r="E46" s="74" t="s">
         <v>28</v>
@@ -11640,13 +11609,13 @@
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="73">
+        <v>4.7480000000000002</v>
+      </c>
+      <c r="D47" s="73">
         <v>4.8609999999999998</v>
-      </c>
-      <c r="D47" s="73">
-        <v>4.9749999999999996</v>
       </c>
       <c r="E47" s="74" t="s">
         <v>28</v>
@@ -11713,13 +11682,13 @@
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="73">
+        <v>4.8609999999999998</v>
+      </c>
+      <c r="D48" s="73">
         <v>4.9749999999999996</v>
-      </c>
-      <c r="D48" s="73">
-        <v>5.0910000000000002</v>
       </c>
       <c r="E48" s="74" t="s">
         <v>28</v>
@@ -11786,13 +11755,13 @@
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" s="73">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="D49" s="73">
         <v>5.0910000000000002</v>
-      </c>
-      <c r="D49" s="73">
-        <v>5.2140000000000004</v>
       </c>
       <c r="E49" s="74" t="s">
         <v>28</v>
@@ -11859,13 +11828,13 @@
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="73">
+        <v>5.0910000000000002</v>
+      </c>
+      <c r="D50" s="73">
         <v>5.2140000000000004</v>
-      </c>
-      <c r="D50" s="73">
-        <v>5.3390000000000004</v>
       </c>
       <c r="E50" s="74" t="s">
         <v>28</v>
@@ -11932,13 +11901,13 @@
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C51" s="73">
+        <v>5.2140000000000004</v>
+      </c>
+      <c r="D51" s="73">
         <v>5.3390000000000004</v>
-      </c>
-      <c r="D51" s="73">
-        <v>5.4950000000000001</v>
       </c>
       <c r="E51" s="74" t="s">
         <v>28</v>
@@ -12005,13 +11974,13 @@
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" s="73">
+        <v>5.3390000000000004</v>
+      </c>
+      <c r="D52" s="73">
         <v>5.4950000000000001</v>
-      </c>
-      <c r="D52" s="73">
-        <v>5.7050000000000001</v>
       </c>
       <c r="E52" s="74" t="s">
         <v>28</v>
@@ -12077,99 +12046,152 @@
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B53" s="67"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="67"/>
+      <c r="B53" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="73">
+        <v>5.4950000000000001</v>
+      </c>
+      <c r="D53" s="73">
+        <v>5.7050000000000001</v>
+      </c>
+      <c r="E53" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="78">
+        <v>2.3400000000000001E-8</v>
+      </c>
+      <c r="H53" s="76" t="s">
+        <v>29</v>
+      </c>
       <c r="I53" s="70"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="70"/>
+      <c r="J53" s="73">
+        <f t="shared" si="5"/>
+        <v>2.3400000000000001E-8</v>
+      </c>
+      <c r="K53" s="78" t="str">
+        <f t="shared" si="0"/>
+        <v>+III</v>
+      </c>
       <c r="L53" s="2"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="64"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="64"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="82"/>
-      <c r="V53" s="84"/>
-    </row>
-    <row r="54" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="34"/>
-      <c r="M54" s="33">
-        <f>IF(AND(F54="Geen faalkans",H54="Nee"),1,1-J54)</f>
+      <c r="M53" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99999997659999995</v>
+      </c>
+      <c r="N53" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99999997659999995</v>
+      </c>
+      <c r="O53" s="10">
+        <f t="shared" si="8"/>
+        <v>4.6800000000000002E-8</v>
+      </c>
+      <c r="P53" s="10">
+        <f t="shared" si="9"/>
+        <v>4.6800000000000002E-8</v>
+      </c>
+      <c r="Q53" s="9">
+        <f t="array" ref="Q53">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J53,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>3.3333333333333335E-7</v>
+      </c>
+      <c r="R53" s="9">
+        <f>IFERROR(MATCH($Q53,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
-      <c r="N54" s="15">
-        <f>IF(J54="-",1,M54)</f>
+      <c r="S53" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R53)</f>
+        <v>+III</v>
+      </c>
+      <c r="T53" s="9" t="b">
+        <f>IF($E53="Ja",IF($H53="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U53" s="81">
+        <f t="shared" si="10"/>
+        <v>2.340000004874554E-8</v>
+      </c>
+      <c r="V53" s="83">
+        <f t="shared" si="11"/>
+        <v>2.340000004874554E-8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B54" s="67"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="82"/>
+      <c r="V54" s="84"/>
+    </row>
+    <row r="55" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="34"/>
+      <c r="M55" s="33">
+        <f>IF(AND(F55="Geen faalkans",H55="Nee"),1,1-J55)</f>
         <v>1</v>
       </c>
-      <c r="O54" s="15">
-        <f>IF(AND(F54="Geen faalkans",H54="Nee"),0,J54*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P54" s="15">
-        <f>IF(J54="-",0,O54)</f>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="14">
-        <f t="array" ref="Q54">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J54,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+      <c r="N55" s="15">
+        <f>IF(J55="-",1,M55)</f>
+        <v>1</v>
+      </c>
+      <c r="O55" s="15">
+        <f>IF(AND(F55="Geen faalkans",H55="Nee"),0,J55*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="15">
+        <f>IF(J55="-",0,O55)</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="14">
+        <f t="array" ref="Q55">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J55,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>3.3333333333333335E-7</v>
       </c>
-      <c r="R54" s="14">
-        <f>IFERROR(MATCH($Q54,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+      <c r="R55" s="14">
+        <f>IFERROR(MATCH($Q55,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
         <v>1</v>
       </c>
-      <c r="S54" s="14" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R54)</f>
-        <v>+III</v>
-      </c>
-      <c r="T54" s="14" t="b">
-        <f>IF($E54="Ja",IF($H54="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U54" s="85">
+      <c r="S55" s="14" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R55)</f>
+        <v>+III</v>
+      </c>
+      <c r="T55" s="14" t="b">
+        <f>IF($E55="Ja",IF($H55="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U55" s="85">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V54" s="86">
-        <f>1-N54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="65"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
+      <c r="V55" s="86">
+        <f>1-N55</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
@@ -12192,28 +12214,48 @@
       <c r="T56" s="9"/>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M57" s="1"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="65"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M58" s="1"/>
     </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M59" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G15:G56">
+  <conditionalFormatting sqref="G16:G57">
     <cfRule type="expression" dxfId="70" priority="11">
-      <formula>IF($E15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I56">
+  <conditionalFormatting sqref="I16:I57">
     <cfRule type="expression" dxfId="69" priority="10">
-      <formula>IF($H15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:K56">
+  <conditionalFormatting sqref="G16:K57">
     <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K56">
+  <conditionalFormatting sqref="K16:K57">
     <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -12228,7 +12270,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="36" operator="endsWith" id="{F7B08000-9400-46DD-A131-35187929BFC9}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -12239,7 +12281,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="37" operator="endsWith" id="{6D0591F0-1D10-4810-AA14-0BE30C52E201}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -12250,7 +12292,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="38" operator="endsWith" id="{EF308A70-7C0F-485F-B494-C521E8B44256}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -12261,7 +12303,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="39" operator="endsWith" id="{9B64F30E-AFD8-4003-B940-A265D08BC3ED}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -12272,7 +12314,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="40" operator="containsText" id="{DAD0CB9A-8397-4826-B226-78C7572F4129}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -12283,7 +12325,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="41" operator="containsText" id="{292412C6-8FED-46EB-8018-EC091EC7347F}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -12293,7 +12335,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K15:K56</xm:sqref>
+          <xm:sqref>K16:K57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12303,13 +12345,13 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E57:E72</xm:sqref>
+          <xm:sqref>E58:E73</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB048516-AC25-40E8-BE09-761864A40761}">
           <x14:formula1>
             <xm:f>Informatiepagina!$B$20:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>F15:F56</xm:sqref>
+          <xm:sqref>F16:F57</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12319,10 +12361,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4337BDE-5D5C-4814-877A-41AF49DBDF5F}">
-  <dimension ref="B2:V34"/>
+  <dimension ref="B2:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12375,215 +12417,201 @@
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="26">
-        <f>IFERROR(IF(C5="P1",1-PRODUCT(M15:M32),MAX(O15:O32)),"GR")</f>
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C7" s="26">
-        <f>IF(C5="P1",1-PRODUCT(N15:N32),MAX(P15:P32))</f>
+        <f>IFERROR(IF(C5="P1",1-PRODUCT(M16:M33),MAX(O16:O33)),"GR")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" s="26">
-        <f>IFERROR(MAX(U15:U32),"GR")</f>
+        <f>IF(C5="P1",1-PRODUCT(N16:N33),MAX(P16:P33))</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="C9" s="26">
-        <f>MAX(V15:V32)</f>
+        <f>IFERROR(MAX(U16:U33),"GR")</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="26">
+        <f>MAX(V16:V33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="26">
-        <f>IFERROR(1-PRODUCT(M15:M32),"GR")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41" t="s">
+      <c r="C11" s="26">
+        <f>IFERROR(1-PRODUCT(M16:M33),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="27">
-        <f>1-PRODUCT(N15:N32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
+      <c r="C12" s="27">
+        <f>1-PRODUCT(N16:N33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    <row r="15" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="36" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N15" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O15" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="37" t="s">
+      <c r="P15" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="Q14" s="38" t="s">
+      <c r="Q15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R15" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="38" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="U14" s="38" t="s">
+      <c r="U15" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="V14" s="39" t="s">
+      <c r="V15" s="39" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>5.7050000000000001</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="3" t="s">
+      <c r="G16" s="25"/>
+      <c r="H16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="5">
-        <f>IF($E15="Nee",0,IF(ISNUMBER(I15),I15,IF(ISNUMBER(G15),G15,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="30" t="str">
-        <f>IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
-        <v>NR</v>
-      </c>
-      <c r="M15" s="31">
-        <f t="shared" ref="M15" si="0">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
+      <c r="I16" s="25"/>
+      <c r="J16" s="5">
+        <f>IF($E16="Nee",0,IF(ISNUMBER(I16),I16,IF(ISNUMBER(G16),G16,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="30" t="str">
+        <f>IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
+        <v>NR</v>
+      </c>
+      <c r="M16" s="31">
+        <f t="shared" ref="M16" si="0">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
         <v>1</v>
       </c>
-      <c r="N15" s="10">
-        <f t="shared" ref="N15" si="1">IF(J15="-",1,M15)</f>
+      <c r="N16" s="10">
+        <f t="shared" ref="N16" si="1">IF(J16="-",1,M16)</f>
         <v>1</v>
       </c>
-      <c r="O15" s="10">
-        <f t="shared" ref="O15" si="2">IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f>IF(J15="-",0,O15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+      <c r="O16" s="10">
+        <f t="shared" ref="O16" si="2">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <f>IF(J16="-",0,O16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
-      <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>+III</v>
-      </c>
-      <c r="T15" s="9" t="b">
-        <f>IF($E15="Ja",IF($H15="Ja",NOT(ISNUMBER($I15)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="10">
-        <f>1-M15</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="26">
-        <f>1-N15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="32"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="12"/>
+      <c r="S16" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
+        <v>+III</v>
+      </c>
+      <c r="T16" s="9" t="b">
+        <f>IF($E16="Ja",IF($H16="Ja",NOT(ISNUMBER($I16)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="10">
+        <f>1-M16</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="26">
+        <f>1-N16</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -12915,6 +12943,756 @@
       <c r="U31" s="9"/>
       <c r="V31" s="12"/>
     </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="32"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="12"/>
+    </row>
+    <row r="33" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="34"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="17"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M35" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G16:G33">
+    <cfRule type="expression" dxfId="59" priority="5">
+      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I33">
+    <cfRule type="expression" dxfId="58" priority="4">
+      <formula>IF($H16="Nee",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K33">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+      <formula>"0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+      <formula>"ND"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" copies="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{ABB37571-79F6-4148-B9CE-2132566F3EBC}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{FD55077C-3742-45D6-8C63-4F3978DD275E}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{4FDC3C25-E9F9-443E-A88E-2102EB566A77}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{B6B08F1B-E8C6-4E24-9A04-8CE60FD8BEA8}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{373E8781-7B94-4A13-B857-164B12521A98}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K16)))</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00CC99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{102DC694-4285-4E19-ACB8-CBA4D384AD46}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K16)))</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K16:K33</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6AF31593-36EA-4A22-8382-C10A426B1B54}">
+          <x14:formula1>
+            <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>E34:E49 F16:F33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A27DBF-2298-4509-84AE-DCEFED147711}">
+  <dimension ref="B2:V34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="26">
+        <f>IFERROR(IF(C5="P1",1-PRODUCT(M16:M32),MAX(O16:O32)),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="26">
+        <f>IF(C5="P1",1-PRODUCT(N16:N32),MAX(P16:P32))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="26">
+        <f>IFERROR(MAX(U16:U32),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="26">
+        <f>MAX(V16:V32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="26">
+        <f>IFERROR(1-PRODUCT(M16:M32),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="27">
+        <f>1-PRODUCT(N16:N32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="64"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="U15" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="V15" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5.7050000000000001</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="5">
+        <f>IF($E16="Nee",0,IF(ISNUMBER(I16),I16,IF(ISNUMBER(G16),G16,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="30" t="str">
+        <f>IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
+        <v>NR</v>
+      </c>
+      <c r="M16" s="31">
+        <f t="shared" ref="M16" si="0">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" ref="N16" si="1">IF(J16="-",1,M16)</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="10">
+        <f>IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <f>IF(J16="-",0,O16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
+        <v>+III</v>
+      </c>
+      <c r="T16" s="9" t="b">
+        <f>IF($E16="Ja",IF($H16="Ja",NOT(ISNUMBER($I16)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="10">
+        <f>1-M16</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="26">
+        <f>1-N16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="32"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="12"/>
+    </row>
+    <row r="18" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="32"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="12"/>
+    </row>
+    <row r="19" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="32"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="12"/>
+    </row>
+    <row r="20" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="32"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="12"/>
+    </row>
+    <row r="21" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="32"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="12"/>
+    </row>
+    <row r="22" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="32"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="12"/>
+    </row>
+    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="32"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="12"/>
+    </row>
+    <row r="24" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="32"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="12"/>
+    </row>
+    <row r="25" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="32"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="12"/>
+    </row>
+    <row r="26" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="32"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="12"/>
+    </row>
+    <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="32"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="12"/>
+    </row>
+    <row r="28" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="32"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="12"/>
+    </row>
+    <row r="29" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="32"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="12"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="32"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="12"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="32"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="12"/>
+    </row>
     <row r="32" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -12944,25 +13722,46 @@
       <c r="M34" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G15:G32">
-    <cfRule type="expression" dxfId="59" priority="5">
-      <formula>IF($E15="Nee",TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="G17:G20 G22:G32">
+    <cfRule type="expression" dxfId="26" priority="16">
+      <formula>IF($E17="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I32">
-    <cfRule type="expression" dxfId="58" priority="4">
-      <formula>IF($H15="Nee",TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="I17:I32">
+    <cfRule type="expression" dxfId="25" priority="15">
+      <formula>IF($H17="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K32">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+  <conditionalFormatting sqref="K17:K32">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+      <formula>"0"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+      <formula>"ND"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" dxfId="18" priority="5">
+      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="17" priority="4">
+      <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12971,8 +13770,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{ABB37571-79F6-4148-B9CE-2132566F3EBC}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+          <x14:cfRule type="endsWith" priority="17" operator="endsWith" id="{9FC208BF-EAC7-4689-9C69-B4C0AF97788A}">
+            <xm:f>RIGHT(K17,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -12982,8 +13781,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{FD55077C-3742-45D6-8C63-4F3978DD275E}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+          <x14:cfRule type="endsWith" priority="18" operator="endsWith" id="{C5FD292B-C2DC-4845-B28E-24E6E20098B8}">
+            <xm:f>RIGHT(K17,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -12993,8 +13792,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{4FDC3C25-E9F9-443E-A88E-2102EB566A77}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+          <x14:cfRule type="endsWith" priority="19" operator="endsWith" id="{108B8320-33E6-4019-B0C6-D42133630008}">
+            <xm:f>RIGHT(K17,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -13004,8 +13803,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{B6B08F1B-E8C6-4E24-9A04-8CE60FD8BEA8}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+          <x14:cfRule type="endsWith" priority="20" operator="endsWith" id="{6D9F7B0D-8F82-4139-BF58-3DF997FB327D}">
+            <xm:f>RIGHT(K17,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -13015,8 +13814,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{373E8781-7B94-4A13-B857-164B12521A98}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K15)))</xm:f>
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{695ED08F-7F5E-4AA0-B9EC-1C679CD14FF4}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K17)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -13026,8 +13825,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{102DC694-4285-4E19-ACB8-CBA4D384AD46}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K15)))</xm:f>
+          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{7A0DEDA9-62F6-4584-A60C-AC430DA6FB4A}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K17)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -13037,17 +13836,86 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K15:K32</xm:sqref>
+          <xm:sqref>K17:K32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{C322DAE5-F729-4340-A0EA-D8390FF4AD08}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{F3CC01A3-4C89-461C-A641-DF5BAA3BB6D5}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{B6863F44-D28C-4542-A0D6-D72826D52F60}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{2F738001-0792-492C-8848-C9BDAAEF5448}">
+            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{5FAA576A-9D02-4921-841F-B62C95F12920}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K16)))</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00CC99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{2ED689C0-CAAF-4013-A19B-4FF78A1233DC}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K16)))</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6AF31593-36EA-4A22-8382-C10A426B1B54}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D3252B-4C33-455B-8361-35393CCA4B04}">
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E33:E48 F15:F32</xm:sqref>
+          <xm:sqref>E33:E48 F16:F32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13055,12 +13923,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4475A-3782-4C92-8ED6-63AC240A6132}">
-  <dimension ref="B2:V34"/>
+  <dimension ref="B2:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13113,219 +13981,205 @@
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="26">
-        <f>IFERROR(IF(C5="P1",1-PRODUCT(M15:M32),MAX(O15:O32)),"GR")</f>
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C7" s="26">
-        <f>IF(C5="P1",1-PRODUCT(N15:N32),MAX(P15:P32))</f>
+        <f>IFERROR(IF(C5="P1",1-PRODUCT(M16:M33),MAX(O16:O33)),"GR")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" s="26">
-        <f>IFERROR(MAX(U15:U32),"GR")</f>
+        <f>IF(C5="P1",1-PRODUCT(N16:N33),MAX(P16:P33))</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="C9" s="26">
-        <f>MAX(V15:V32)</f>
+        <f>IFERROR(MAX(U16:U33),"GR")</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="26">
+        <f>MAX(V16:V33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="26">
-        <f>IFERROR(1-PRODUCT(M15:M32),"GR")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41" t="s">
+      <c r="C11" s="26">
+        <f>IFERROR(1-PRODUCT(M16:M33),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="27">
-        <f>1-PRODUCT(N15:N32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="64"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
+      <c r="C12" s="27">
+        <f>1-PRODUCT(N16:N33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="64"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    <row r="15" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="36" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N15" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O15" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="37" t="s">
+      <c r="P15" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="Q14" s="38" t="s">
+      <c r="Q15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R15" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="38" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="U14" s="38" t="s">
+      <c r="U15" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="V14" s="39" t="s">
+      <c r="V15" s="39" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>5.7050000000000001</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="3" t="s">
+      <c r="G16" s="25"/>
+      <c r="H16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="5">
-        <f>IF($E15="Nee",0,IF(ISNUMBER(I15),I15,IF(ISNUMBER(G15),G15,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="30" t="str">
-        <f>IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
-        <v>NR</v>
-      </c>
-      <c r="M15" s="31">
-        <f t="shared" ref="M15" si="0">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
+      <c r="I16" s="25"/>
+      <c r="J16" s="5">
+        <f>IF($E16="Nee",0,IF(ISNUMBER(I16),I16,IF(ISNUMBER(G16),G16,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="30" t="str">
+        <f>IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
+        <v>NR</v>
+      </c>
+      <c r="M16" s="31">
+        <f t="shared" ref="M16" si="0">IF(AND(F16="Geen faalkans",H16="Nee"),1,1-J16)</f>
         <v>1</v>
       </c>
-      <c r="N15" s="10">
-        <f t="shared" ref="N15" si="1">IF(J15="-",1,M15)</f>
+      <c r="N16" s="10">
+        <f t="shared" ref="N16" si="1">IF(J16="-",1,M16)</f>
         <v>1</v>
       </c>
-      <c r="O15" s="10">
-        <f t="shared" ref="O15" si="2">IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f>IF(J15="-",0,O15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+      <c r="O16" s="10">
+        <f t="shared" ref="O16" si="2">IF(AND(F16="Geen faalkans",H16="Nee"),0,J16*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <f>IF(J16="-",0,O16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
-      <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>+III</v>
-      </c>
-      <c r="T15" s="9" t="b">
-        <f>IF($E15="Ja",IF($H15="Ja",NOT(ISNUMBER($I15)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="10">
-        <f>1-M15</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="26">
-        <f>1-N15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="32"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="12"/>
+      <c r="S16" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
+        <v>+III</v>
+      </c>
+      <c r="T16" s="9" t="b">
+        <f>IF($E16="Ja",IF($H16="Ja",NOT(ISNUMBER($I16)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="10">
+        <f>1-M16</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="26">
+        <f>1-N16</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -13657,46 +14511,68 @@
       <c r="U31" s="9"/>
       <c r="V31" s="12"/>
     </row>
-    <row r="32" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="34"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="17"/>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="32"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="12"/>
+    </row>
+    <row r="33" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="34"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="17"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M34" s="1"/>
     </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M35" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G16:G32">
+  <conditionalFormatting sqref="G17:G33">
     <cfRule type="expression" dxfId="48" priority="16">
-      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E17="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:I32">
+  <conditionalFormatting sqref="I17:I33">
     <cfRule type="expression" dxfId="47" priority="15">
-      <formula>IF($H16="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H17="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K32">
+  <conditionalFormatting sqref="K17:K33">
     <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -13707,17 +14583,17 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
+  <conditionalFormatting sqref="G16">
     <cfRule type="expression" dxfId="43" priority="5">
-      <formula>IF($E15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+  <conditionalFormatting sqref="I16">
     <cfRule type="expression" dxfId="42" priority="4">
-      <formula>IF($H15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="K16">
     <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -13735,6 +14611,75 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="17" operator="endsWith" id="{1EBB7798-64BC-4E62-B5ED-EDC8D12F766E}">
+            <xm:f>RIGHT(K17,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="18" operator="endsWith" id="{D525A4D3-4210-4434-88AA-077EC405481F}">
+            <xm:f>RIGHT(K17,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="19" operator="endsWith" id="{70AE3533-A03A-4765-98EF-A2F7520BB2C5}">
+            <xm:f>RIGHT(K17,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="20" operator="endsWith" id="{3BE27E41-6EB9-4688-923B-987C0F78C96E}">
+            <xm:f>RIGHT(K17,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{9D267873-A89D-4F45-952A-AA5EA8DE68C2}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K17)))</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00CC99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{21BE4470-53F7-4774-9EF3-925E463CB556}">
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K17)))</xm:f>
+            <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K17:K33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{3EEFC532-156D-4566-B032-B72A8257A0E2}">
             <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
@@ -13745,7 +14690,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="18" operator="endsWith" id="{D525A4D3-4210-4434-88AA-077EC405481F}">
+          <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{6D7E8BF2-A850-4D7D-900A-2F677C9596F1}">
             <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
@@ -13756,7 +14701,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="19" operator="endsWith" id="{70AE3533-A03A-4765-98EF-A2F7520BB2C5}">
+          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{AB644FD2-1821-4D4C-B04C-00346017634D}">
             <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
@@ -13767,7 +14712,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="20" operator="endsWith" id="{3BE27E41-6EB9-4688-923B-987C0F78C96E}">
+          <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{BDA2F08F-E942-4291-8F8C-BF7F422D7A31}">
             <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
@@ -13778,7 +14723,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{9D267873-A89D-4F45-952A-AA5EA8DE68C2}">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{0D6AD115-243B-4B46-AB1C-7C3B4032F9C7}">
             <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
@@ -13789,7 +14734,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{21BE4470-53F7-4774-9EF3-925E463CB556}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{7A4BEAA1-8461-4A23-B0AD-C2596CF2E10E}">
             <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K16)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
@@ -13800,76 +14745,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K16:K32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{3EEFC532-156D-4566-B032-B72A8257A0E2}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF7030A0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{6D7E8BF2-A850-4D7D-900A-2F677C9596F1}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{AB644FD2-1821-4D4C-B04C-00346017634D}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{BDA2F08F-E942-4291-8F8C-BF7F422D7A31}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{0D6AD115-243B-4B46-AB1C-7C3B4032F9C7}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K15)))</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00CC99"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{7A4BEAA1-8461-4A23-B0AD-C2596CF2E10E}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K15)))</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.59996337778862885"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K15</xm:sqref>
+          <xm:sqref>K16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -13879,817 +14755,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E33:E48 F15:F32</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A27DBF-2298-4509-84AE-DCEFED147711}">
-  <dimension ref="B2:V33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="26">
-        <f>IFERROR(IF(C5="P1",1-PRODUCT(M15:M31),MAX(O15:O31)),"GR")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="26">
-        <f>IF(C5="P1",1-PRODUCT(N15:N31),MAX(P15:P31))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="26">
-        <f>IFERROR(MAX(U15:U31),"GR")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="26">
-        <f>MAX(V15:V31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="26">
-        <f>IFERROR(1-PRODUCT(M15:M31),"GR")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="27">
-        <f>1-PRODUCT(N15:N31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="64"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="P14" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q14" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="R14" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="U14" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="V14" s="39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>5.7050000000000001</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="5">
-        <f>IF($E15="Nee",0,IF(ISNUMBER(I15),I15,IF(ISNUMBER(G15),G15,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="30" t="str">
-        <f>IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
-        <v>NR</v>
-      </c>
-      <c r="M15" s="31">
-        <f t="shared" ref="M15" si="0">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
-        <v>1</v>
-      </c>
-      <c r="N15" s="10">
-        <f t="shared" ref="N15" si="1">IF(J15="-",1,M15)</f>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
-        <f>IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f>IF(J15="-",0,O15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>+III</v>
-      </c>
-      <c r="T15" s="9" t="b">
-        <f>IF($E15="Ja",IF($H15="Ja",NOT(ISNUMBER($I15)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="10">
-        <f>1-M15</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="26">
-        <f>1-N15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="32"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="12"/>
-    </row>
-    <row r="17" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="32"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="12"/>
-    </row>
-    <row r="18" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="32"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="12"/>
-    </row>
-    <row r="19" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="32"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="12"/>
-    </row>
-    <row r="20" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="32"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="12"/>
-    </row>
-    <row r="21" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="32"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="12"/>
-    </row>
-    <row r="22" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="32"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="12"/>
-    </row>
-    <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="32"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="12"/>
-    </row>
-    <row r="24" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="32"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="12"/>
-    </row>
-    <row r="25" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="32"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="12"/>
-    </row>
-    <row r="26" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="32"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="12"/>
-    </row>
-    <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="32"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="12"/>
-    </row>
-    <row r="28" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="32"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="12"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="32"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="12"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="32"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="12"/>
-    </row>
-    <row r="31" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="34"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="17"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="1"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G16:G19 G21:G31">
-    <cfRule type="expression" dxfId="26" priority="16">
-      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16:I31">
-    <cfRule type="expression" dxfId="25" priority="15">
-      <formula>IF($H16="Nee",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K31">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
-      <formula>"0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
-      <formula>"ND"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
-      <formula>"0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
-      <formula>"ND"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="18" priority="5">
-      <formula>IF($E15="Nee",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="17" priority="4">
-      <formula>IF($H15="Nee",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" copies="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="endsWith" priority="17" operator="endsWith" id="{9FC208BF-EAC7-4689-9C69-B4C0AF97788A}">
-            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF7030A0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="18" operator="endsWith" id="{C5FD292B-C2DC-4845-B28E-24E6E20098B8}">
-            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="19" operator="endsWith" id="{108B8320-33E6-4019-B0C6-D42133630008}">
-            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="20" operator="endsWith" id="{6D9F7B0D-8F82-4139-BF58-3DF997FB327D}">
-            <xm:f>RIGHT(K16,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{695ED08F-7F5E-4AA0-B9EC-1C679CD14FF4}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K16)))</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00CC99"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{7A0DEDA9-62F6-4584-A60C-AC430DA6FB4A}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K16)))</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.59996337778862885"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K16:K31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{C322DAE5-F729-4340-A0EA-D8390FF4AD08}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF7030A0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{F3CC01A3-4C89-461C-A641-DF5BAA3BB6D5}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{B6863F44-D28C-4542-A0D6-D72826D52F60}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{2F738001-0792-492C-8848-C9BDAAEF5448}">
-            <xm:f>RIGHT(K15,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{5FAA576A-9D02-4921-841F-B62C95F12920}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K15)))</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00CC99"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{2ED689C0-CAAF-4013-A19B-4FF78A1233DC}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K15)))</xm:f>
-            <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.59996337778862885"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K15</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D3252B-4C33-455B-8361-35393CCA4B04}">
-          <x14:formula1>
-            <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>E32:E47 F15:F31</xm:sqref>
+          <xm:sqref>E34:E49 F16:F33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 13-2.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 13-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9174DFB-D630-4ECC-AF0B-9F9666AD3777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D692B1C6-CAAF-4F28-838F-6FBCD0E435C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -267,9 +267,6 @@
     <t>Macrostabiliteit</t>
   </si>
   <si>
-    <t>Erosie van het buitentalud</t>
-  </si>
-  <si>
     <t>Duinafslag</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>Gecorreleerd</t>
+  </si>
+  <si>
+    <t>Erosie van het binnentalud</t>
   </si>
 </sst>
 </file>
@@ -1027,20 +1027,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0"/>
           <bgColor rgb="FFFF0000"/>
@@ -1059,6 +1045,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1185,6 +1185,20 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0"/>
           <bgColor rgb="FFFF0000"/>
@@ -1203,20 +1217,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1990,19 +1990,19 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="E2" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>91</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -2010,7 +2010,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>28</v>
@@ -2027,7 +2027,7 @@
         <v>73</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>28</v>
@@ -2041,10 +2041,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>29</v>
@@ -2053,21 +2053,21 @@
         <v>28</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>29</v>
@@ -2075,16 +2075,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>29</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>29</v>
@@ -2109,16 +2109,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>29</v>
@@ -2126,16 +2126,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>29</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>29</v>
@@ -2160,10 +2160,10 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>29</v>
@@ -2172,7 +2172,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2223,7 +2223,7 @@
   </sheetPr>
   <dimension ref="B2:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -2243,7 +2243,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(M7:M13)*(1-L15),"GR")</f>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
@@ -2297,39 +2297,39 @@
         <v>49</v>
       </c>
       <c r="E6" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="J6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="29">
         <f>STPH!C7</f>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="31">
         <f>STBI!C7</f>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="31">
         <f>GEKB!C7</f>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="31">
         <f>DA!C7</f>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="31">
         <f>STKWp!C7</f>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="31">
         <f>HTKW!C7</f>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="31">
         <f>BSKW!C7</f>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I15" s="1"/>
       <c r="K15" s="1"/>
@@ -2792,31 +2792,31 @@
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
       <c r="D2" s="63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="H2" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="I2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="J2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="K2" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="49" t="s">
         <v>80</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="49" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -5466,7 +5466,7 @@
         <v>60</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="9">
         <v>5.7050000000000001</v>
@@ -5568,12 +5568,12 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>47</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>28</v>
@@ -5737,15 +5737,15 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(Z16:Z35)</f>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R35)</f>
@@ -5818,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>3</v>
@@ -5877,10 +5877,10 @@
         <v>71</v>
       </c>
       <c r="Y15" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z15" s="39" t="s">
         <v>140</v>
-      </c>
-      <c r="Z15" s="39" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -6621,7 +6621,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>28</v>
@@ -6629,15 +6629,15 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(Z16:Z35)</f>
@@ -6690,7 +6690,7 @@
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R35)</f>
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>3</v>
@@ -6769,10 +6769,10 @@
         <v>71</v>
       </c>
       <c r="Y15" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z15" s="39" t="s">
         <v>142</v>
-      </c>
-      <c r="Z15" s="39" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -7471,8 +7471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:V78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7496,7 +7496,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -7509,7 +7509,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -7517,15 +7517,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V76)</f>
@@ -7578,7 +7578,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N76)</f>
@@ -7629,10 +7629,10 @@
         <v>51</v>
       </c>
       <c r="O15" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>89</v>
       </c>
       <c r="Q15" s="38" t="s">
         <v>69</v>
@@ -7645,15 +7645,15 @@
         <v>71</v>
       </c>
       <c r="U15" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="V15" s="39" t="s">
         <v>142</v>
-      </c>
-      <c r="V15" s="39" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -9189,7 +9189,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -9202,7 +9202,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -9210,15 +9210,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -9253,7 +9253,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V55)</f>
@@ -9271,7 +9271,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N55)</f>
@@ -9338,10 +9338,10 @@
         <v>71</v>
       </c>
       <c r="U15" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="V15" s="39" t="s">
         <v>140</v>
-      </c>
-      <c r="V15" s="39" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -10806,7 +10806,7 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" s="73">
         <v>3.302</v>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="73">
         <v>3.4630000000000001</v>
@@ -10952,7 +10952,7 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" s="73">
         <v>3.5960000000000001</v>
@@ -11025,7 +11025,7 @@
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" s="73">
         <v>3.726</v>
@@ -11098,7 +11098,7 @@
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40" s="73">
         <v>3.8559999999999999</v>
@@ -11171,7 +11171,7 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C41" s="73">
         <v>3.9809999999999999</v>
@@ -11244,7 +11244,7 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" s="73">
         <v>4.1050000000000004</v>
@@ -11317,7 +11317,7 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="73">
         <v>4.2359999999999998</v>
@@ -11390,7 +11390,7 @@
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="73">
         <v>4.38</v>
@@ -11463,7 +11463,7 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="73">
         <v>4.5129999999999999</v>
@@ -11536,7 +11536,7 @@
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="73">
         <v>4.6340000000000003</v>
@@ -11609,7 +11609,7 @@
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" s="73">
         <v>4.7480000000000002</v>
@@ -11682,7 +11682,7 @@
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="73">
         <v>4.8609999999999998</v>
@@ -11755,7 +11755,7 @@
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="73">
         <v>4.9749999999999996</v>
@@ -11828,7 +11828,7 @@
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="73">
         <v>5.0910000000000002</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="73">
         <v>5.2140000000000004</v>
@@ -11974,7 +11974,7 @@
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52" s="73">
         <v>5.3390000000000004</v>
@@ -12047,7 +12047,7 @@
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="73">
         <v>5.4950000000000001</v>
@@ -12388,7 +12388,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -12401,7 +12401,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -12409,15 +12409,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -12452,7 +12452,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V33)</f>
@@ -12470,7 +12470,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N33)</f>
@@ -12521,10 +12521,10 @@
         <v>51</v>
       </c>
       <c r="O15" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>89</v>
       </c>
       <c r="Q15" s="38" t="s">
         <v>69</v>
@@ -12537,10 +12537,10 @@
         <v>71</v>
       </c>
       <c r="U15" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="V15" s="39" t="s">
         <v>140</v>
-      </c>
-      <c r="V15" s="39" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -13134,7 +13134,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -13147,7 +13147,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -13155,15 +13155,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -13198,7 +13198,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V32)</f>
@@ -13216,7 +13216,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N32)</f>
@@ -13271,10 +13271,10 @@
         <v>51</v>
       </c>
       <c r="O15" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>89</v>
       </c>
       <c r="Q15" s="38" t="s">
         <v>69</v>
@@ -13287,7 +13287,7 @@
         <v>71</v>
       </c>
       <c r="U15" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V15" s="39" t="s">
         <v>50</v>
@@ -13723,44 +13723,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G17:G20 G22:G32">
-    <cfRule type="expression" dxfId="26" priority="16">
+    <cfRule type="expression" dxfId="48" priority="16">
       <formula>IF($E17="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I32">
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="47" priority="15">
       <formula>IF($H17="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K32">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13952,7 +13952,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -13965,7 +13965,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -13973,15 +13973,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -14016,7 +14016,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V33)</f>
@@ -14034,7 +14034,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N33)</f>
@@ -14089,10 +14089,10 @@
         <v>51</v>
       </c>
       <c r="O15" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>89</v>
       </c>
       <c r="Q15" s="38" t="s">
         <v>69</v>
@@ -14105,10 +14105,10 @@
         <v>71</v>
       </c>
       <c r="U15" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="V15" s="39" t="s">
         <v>140</v>
-      </c>
-      <c r="V15" s="39" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -14563,44 +14563,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G17:G33">
-    <cfRule type="expression" dxfId="48" priority="16">
+    <cfRule type="expression" dxfId="26" priority="16">
       <formula>IF($E17="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I33">
-    <cfRule type="expression" dxfId="47" priority="15">
+    <cfRule type="expression" dxfId="25" priority="15">
       <formula>IF($H17="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K33">
-    <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
